--- a/dynamics/src/dynamics/xlsx/tested_reward_state.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_reward_state.xlsx
@@ -413,215 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="B1" t="n">
-        <v>-0.173</v>
-      </c>
-      <c r="C1" t="n">
-        <v>-0.453</v>
-      </c>
-      <c r="D1" t="n">
-        <v>-31</v>
-      </c>
-      <c r="E1" t="n">
-        <v>56</v>
-      </c>
-      <c r="F1" t="n">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>-0.359</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.064</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-104</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.319</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.359</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>39</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.146</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>130</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.146</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.022</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-70</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-64</v>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.115</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.245</v>
-      </c>
-      <c r="D7" t="n">
-        <v>122</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.189</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="D8" t="n">
-        <v>69</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.064</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.445</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="D9" t="n">
-        <v>90</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.035</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-94</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-42</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/dynamics/src/dynamics/xlsx/tested_reward_state.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_reward_state.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>16.33687458135741</v>
+        <v>14.09668757296761</v>
       </c>
       <c r="D1" t="n">
         <v>0.8</v>
       </c>
       <c r="E1" t="n">
-        <v>0.03046224209941411</v>
+        <v>0.02559489121346322</v>
       </c>
       <c r="F1" t="n">
-        <v>50.10457269077916</v>
+        <v>41.11822380437417</v>
       </c>
       <c r="G1" t="n">
-        <v>64.91095766081654</v>
+        <v>59.78531493937043</v>
       </c>
       <c r="K1" t="n">
-        <v>-5.038342475891113</v>
+        <v>20.02141380310059</v>
       </c>
     </row>
     <row r="2">
@@ -455,22 +455,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.15979060421629</v>
+        <v>7.688430901069168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.023388604357415</v>
+        <v>0.00628165573571357</v>
       </c>
       <c r="F2" t="n">
-        <v>37.61533325088529</v>
+        <v>17.70042068135094</v>
       </c>
       <c r="G2" t="n">
-        <v>54.46191665615679</v>
+        <v>28.92659833789334</v>
       </c>
       <c r="K2" t="n">
-        <v>20.3204288482666</v>
+        <v>9.931380271911621</v>
       </c>
     </row>
     <row r="3">
@@ -481,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>13.56683861506504</v>
+        <v>13.11678453743018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02431142066188009</v>
+        <v>0.02114086629122175</v>
       </c>
       <c r="F3" t="n">
-        <v>38.89661680658202</v>
+        <v>39.5119565734073</v>
       </c>
       <c r="G3" t="n">
-        <v>57.60932342710734</v>
+        <v>51.28787379498641</v>
       </c>
       <c r="K3" t="n">
-        <v>20.02501678466797</v>
+        <v>50.03859329223633</v>
       </c>
     </row>
     <row r="4">
@@ -504,25 +504,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>14.74769956615328</v>
+        <v>15.51974449611036</v>
       </c>
       <c r="D4" t="n">
         <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02710566833021427</v>
+        <v>0.0287892460705518</v>
       </c>
       <c r="F4" t="n">
-        <v>43.80674665098137</v>
+        <v>46.76295979316853</v>
       </c>
       <c r="G4" t="n">
-        <v>61.80234654952944</v>
+        <v>65.17123892569774</v>
       </c>
       <c r="K4" t="n">
-        <v>20.30900192260742</v>
+        <v>-4.986423015594482</v>
       </c>
     </row>
     <row r="5">
@@ -530,25 +530,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>10.48584506230971</v>
+        <v>16.15279766876553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02633331542997695</v>
+        <v>0.03010592218143202</v>
       </c>
       <c r="F5" t="n">
-        <v>54.31142352561606</v>
+        <v>49.12477951193817</v>
       </c>
       <c r="G5" t="n">
-        <v>32.81798123740137</v>
+        <v>67.40551031260435</v>
       </c>
       <c r="K5" t="n">
-        <v>-9.79521656036377</v>
+        <v>-4.990891933441162</v>
       </c>
     </row>
     <row r="6">
@@ -559,22 +559,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.817450307048356</v>
+        <v>10.94846986444051</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004086989857975328</v>
+        <v>0.02788877410864917</v>
       </c>
       <c r="F6" t="n">
-        <v>34.98266300541605</v>
+        <v>61.4388434595494</v>
       </c>
       <c r="G6" t="n">
-        <v>4.001113213008514</v>
+        <v>33.37034700298457</v>
       </c>
       <c r="K6" t="n">
-        <v>4.275898456573486</v>
+        <v>10.3965368270874</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7.796137373543279</v>
+        <v>14.66244115318938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004729255435362191</v>
+        <v>0.02689911751033199</v>
       </c>
       <c r="F7" t="n">
-        <v>17.40653077306419</v>
+        <v>43.3966788020863</v>
       </c>
       <c r="G7" t="n">
-        <v>23.19255969731227</v>
+        <v>62.43050091625123</v>
       </c>
       <c r="K7" t="n">
-        <v>5.609765529632568</v>
+        <v>20.00787162780762</v>
       </c>
     </row>
     <row r="8">
@@ -608,25 +608,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>14.70509504453383</v>
+        <v>16.13149714341866</v>
       </c>
       <c r="D8" t="n">
         <v>0.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0269985669947808</v>
+        <v>0.03005701654205997</v>
       </c>
       <c r="F8" t="n">
-        <v>43.5727286639971</v>
+        <v>49.04516745967858</v>
       </c>
       <c r="G8" t="n">
-        <v>62.47373821693492</v>
+        <v>66.9635268205631</v>
       </c>
       <c r="K8" t="n">
-        <v>20.01157569885254</v>
+        <v>-5.004971981048584</v>
       </c>
     </row>
     <row r="9">
@@ -637,22 +637,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7.734532131722226</v>
+        <v>14.11159399587086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005314655275945269</v>
+        <v>0.02564819328756796</v>
       </c>
       <c r="F9" t="n">
-        <v>17.12995367796384</v>
+        <v>41.27291595803546</v>
       </c>
       <c r="G9" t="n">
-        <v>25.53640331602046</v>
+        <v>59.23554981401888</v>
       </c>
       <c r="K9" t="n">
-        <v>9.895210266113281</v>
+        <v>20.31989860534668</v>
       </c>
     </row>
     <row r="10">
@@ -660,25 +660,25 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7.749944949186824</v>
+        <v>6.887461946614621</v>
       </c>
       <c r="D10" t="n">
         <v>0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007842424603907511</v>
+        <v>0.007318760276034846</v>
       </c>
       <c r="F10" t="n">
-        <v>17.76975777348829</v>
+        <v>22.80814889468526</v>
       </c>
       <c r="G10" t="n">
-        <v>30.57538050845657</v>
+        <v>24.43569014750321</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.701816558837891</v>
+        <v>10.403883934021</v>
       </c>
     </row>
     <row r="11">
@@ -689,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.142882965228473</v>
+        <v>15.98781689392165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00617152293085612</v>
+        <v>0.02975998146252091</v>
       </c>
       <c r="F11" t="n">
-        <v>20.7562463351479</v>
+        <v>48.52793728379623</v>
       </c>
       <c r="G11" t="n">
-        <v>21.42800404086212</v>
+        <v>66.15887178783555</v>
       </c>
       <c r="K11" t="n">
-        <v>5.262744903564453</v>
+        <v>20.02713966369629</v>
       </c>
     </row>
     <row r="12">
@@ -712,25 +712,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7.186586105868916</v>
+        <v>7.845799724904712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005938877131964851</v>
+        <v>0.007506452274255906</v>
       </c>
       <c r="F12" t="n">
-        <v>20.5614148427514</v>
+        <v>18.44905318183444</v>
       </c>
       <c r="G12" t="n">
-        <v>21.28469770686216</v>
+        <v>30.74157956974834</v>
       </c>
       <c r="K12" t="n">
-        <v>5.198326110839844</v>
+        <v>-5.246627330780029</v>
       </c>
     </row>
     <row r="13">
@@ -741,48 +741,48 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.26695644609957</v>
+        <v>7.406499469764457</v>
       </c>
       <c r="D13" t="n">
         <v>0.7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02846452021048422</v>
+        <v>0.006866936864197271</v>
       </c>
       <c r="F13" t="n">
-        <v>57.36613409622048</v>
+        <v>19.59207731349354</v>
       </c>
       <c r="G13" t="n">
-        <v>35.2181357724566</v>
+        <v>27.33910684946865</v>
       </c>
       <c r="K13" t="n">
-        <v>10.34529685974121</v>
+        <v>10.22417831420898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>11.277808825616</v>
+        <v>7.5647703839787</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02841846388419056</v>
+        <v>0.005475842389622398</v>
       </c>
       <c r="F14" t="n">
-        <v>56.64989524280013</v>
+        <v>18.15560336837479</v>
       </c>
       <c r="G14" t="n">
-        <v>35.38773923863905</v>
+        <v>24.70763796593106</v>
       </c>
       <c r="K14" t="n">
-        <v>-19.66089057922363</v>
+        <v>9.838397026062012</v>
       </c>
     </row>
     <row r="15">
@@ -793,22 +793,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>13.1490267908351</v>
+        <v>13.55739315709309</v>
       </c>
       <c r="D15" t="n">
         <v>0.8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02327078344138358</v>
+        <v>0.0243520065691471</v>
       </c>
       <c r="F15" t="n">
-        <v>37.14783736416176</v>
+        <v>39.169756330241</v>
       </c>
       <c r="G15" t="n">
-        <v>55.63551360295415</v>
+        <v>56.3450626753263</v>
       </c>
       <c r="K15" t="n">
-        <v>20.03365325927734</v>
+        <v>20.31584548950195</v>
       </c>
     </row>
     <row r="16">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.80250997407991</v>
+        <v>14.30245773389848</v>
       </c>
       <c r="D16" t="n">
         <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02715397199393284</v>
+        <v>0.02607442573147603</v>
       </c>
       <c r="F16" t="n">
-        <v>43.96954027675363</v>
+        <v>41.94779307744353</v>
       </c>
       <c r="G16" t="n">
-        <v>63.81407081144008</v>
+        <v>60.77282034894064</v>
       </c>
       <c r="K16" t="n">
-        <v>19.9329776763916</v>
+        <v>20.01614761352539</v>
       </c>
     </row>
     <row r="17">
@@ -845,48 +845,48 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.943681873867114</v>
+        <v>14.69332183696799</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005561627395407098</v>
+        <v>0.02698145937984352</v>
       </c>
       <c r="F17" t="n">
-        <v>21.85149263329995</v>
+        <v>43.57418682340474</v>
       </c>
       <c r="G17" t="n">
-        <v>21.02349803019763</v>
+        <v>61.75685564010746</v>
       </c>
       <c r="K17" t="n">
-        <v>9.793571472167969</v>
+        <v>20.31648826599121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>11.91820859064594</v>
+        <v>8.32653139259596</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02999523167065101</v>
+        <v>0.004575174640283047</v>
       </c>
       <c r="F18" t="n">
-        <v>58.23710520127518</v>
+        <v>15.78661584790825</v>
       </c>
       <c r="G18" t="n">
-        <v>37.45019398071963</v>
+        <v>23.85863414610538</v>
       </c>
       <c r="K18" t="n">
-        <v>-19.66710662841797</v>
+        <v>4.388049125671387</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.902393684082438</v>
+        <v>6.912156985154566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01043436551962641</v>
+        <v>0.005675993031508296</v>
       </c>
       <c r="F19" t="n">
-        <v>25.75047750921631</v>
+        <v>22.0264941650039</v>
       </c>
       <c r="G19" t="n">
-        <v>28.25515665096729</v>
+        <v>21.06686165139625</v>
       </c>
       <c r="K19" t="n">
-        <v>20.67477607727051</v>
+        <v>9.751510620117188</v>
       </c>
     </row>
     <row r="20">
@@ -923,22 +923,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.105973000454171</v>
+        <v>7.669656149928263</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005543719325441528</v>
+        <v>0.005583653765778234</v>
       </c>
       <c r="F20" t="n">
-        <v>21.16053612163204</v>
+        <v>17.48407126042667</v>
       </c>
       <c r="G20" t="n">
-        <v>20.17364978713323</v>
+        <v>25.68053394024357</v>
       </c>
       <c r="K20" t="n">
-        <v>5.090003967285156</v>
+        <v>9.795516014099121</v>
       </c>
     </row>
     <row r="21">
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7.97093023813532</v>
+        <v>6.756475887259165</v>
       </c>
       <c r="D21" t="n">
         <v>0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008431462781216198</v>
+        <v>0.00722582536199375</v>
       </c>
       <c r="F21" t="n">
-        <v>17.52525436524248</v>
+        <v>23.54221385184048</v>
       </c>
       <c r="G21" t="n">
-        <v>31.66329827305007</v>
+        <v>23.60363256319841</v>
       </c>
       <c r="K21" t="n">
-        <v>10.47442817687988</v>
+        <v>10.33858871459961</v>
       </c>
     </row>
     <row r="22">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.939323735387871</v>
+        <v>7.274722590204223</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00974387530992149</v>
+        <v>0.005487191230934338</v>
       </c>
       <c r="F22" t="n">
-        <v>26.70487084148246</v>
+        <v>20.19751580230085</v>
       </c>
       <c r="G22" t="n">
-        <v>28.15328086469843</v>
+        <v>21.06975105709354</v>
       </c>
       <c r="K22" t="n">
-        <v>49.314453125</v>
+        <v>5.066991806030273</v>
       </c>
     </row>
     <row r="23">
@@ -998,25 +998,25 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>13.00423077607198</v>
+        <v>10.4329848779286</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02135438043795169</v>
+        <v>0.002911738521842483</v>
       </c>
       <c r="F23" t="n">
-        <v>41.24009029160965</v>
+        <v>11.31927536944176</v>
       </c>
       <c r="G23" t="n">
-        <v>49.06650353492714</v>
+        <v>19.30074859400304</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.760217189788818</v>
+        <v>4.495645046234131</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1027,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>11.06663438326527</v>
+        <v>16.00686675797203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01971315280322959</v>
+        <v>0.02979814220151864</v>
       </c>
       <c r="F24" t="n">
-        <v>26.24114576104991</v>
+        <v>48.68050799947832</v>
       </c>
       <c r="G24" t="n">
-        <v>50.04312450332857</v>
+        <v>68.33595829763939</v>
       </c>
       <c r="K24" t="n">
-        <v>10.37668514251709</v>
+        <v>19.96260643005371</v>
       </c>
     </row>
     <row r="25">
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.163803646053751</v>
+        <v>7.165165796382369</v>
       </c>
       <c r="D25" t="n">
         <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00549209616571558</v>
+        <v>0.005775155021375468</v>
       </c>
       <c r="F25" t="n">
-        <v>20.84278884860517</v>
+        <v>20.73734434443903</v>
       </c>
       <c r="G25" t="n">
-        <v>20.42893587398078</v>
+        <v>20.88561846974893</v>
       </c>
       <c r="K25" t="n">
-        <v>5.073093414306641</v>
+        <v>5.152876377105713</v>
       </c>
     </row>
     <row r="26">
@@ -1079,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.381480617913962</v>
+        <v>7.070436004942526</v>
       </c>
       <c r="D26" t="n">
         <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004779946642379317</v>
+        <v>0.006072069119719752</v>
       </c>
       <c r="F26" t="n">
-        <v>19.83706951143531</v>
+        <v>21.20473772572567</v>
       </c>
       <c r="G26" t="n">
-        <v>20.75285981796906</v>
+        <v>20.83102144469585</v>
       </c>
       <c r="K26" t="n">
-        <v>7.821278095245361</v>
+        <v>5.23927640914917</v>
       </c>
     </row>
     <row r="27">
@@ -1105,48 +1105,48 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>14.11654249698354</v>
+        <v>14.62390009669066</v>
       </c>
       <c r="D27" t="n">
         <v>0.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02563157670707894</v>
+        <v>0.02681004946152642</v>
       </c>
       <c r="F27" t="n">
-        <v>41.16700578297382</v>
+        <v>43.23960492355548</v>
       </c>
       <c r="G27" t="n">
-        <v>60.18391816369575</v>
+        <v>62.32537525280378</v>
       </c>
       <c r="K27" t="n">
-        <v>20.01226806640625</v>
+        <v>20.00589752197266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>15.25884788967513</v>
+        <v>16.0507779749534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03220520967912475</v>
+        <v>0.02988290386591872</v>
       </c>
       <c r="F28" t="n">
-        <v>45.84425599601268</v>
+        <v>48.88841586380371</v>
       </c>
       <c r="G28" t="n">
-        <v>66.08973534949084</v>
+        <v>65.02284190079178</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.04201698303223</v>
+        <v>-5.03113317489624</v>
       </c>
     </row>
     <row r="29">
@@ -1157,22 +1157,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.71136819522222</v>
+        <v>14.66034665118647</v>
       </c>
       <c r="D29" t="n">
         <v>0.8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02702889936545388</v>
+        <v>0.02691098798975392</v>
       </c>
       <c r="F29" t="n">
-        <v>43.70158834912625</v>
+        <v>43.47151431621623</v>
       </c>
       <c r="G29" t="n">
-        <v>61.37632905835648</v>
+        <v>61.3929332917623</v>
       </c>
       <c r="K29" t="n">
-        <v>20.30211639404297</v>
+        <v>20.30909538269043</v>
       </c>
     </row>
     <row r="30">
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7.6579892916948</v>
+        <v>14.09443716509371</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005416564504927445</v>
+        <v>0.02562638139686724</v>
       </c>
       <c r="F30" t="n">
-        <v>17.58761276623234</v>
+        <v>41.31653421552809</v>
       </c>
       <c r="G30" t="n">
-        <v>25.2211302700129</v>
+        <v>58.64356084635823</v>
       </c>
       <c r="K30" t="n">
-        <v>9.858341217041016</v>
+        <v>20.30740356445312</v>
       </c>
     </row>
     <row r="31">
@@ -1206,25 +1206,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.80128727058517</v>
+        <v>15.24966754281224</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02940233864946657</v>
+        <v>0.032161868153277</v>
       </c>
       <c r="F31" t="n">
-        <v>48.29271388707602</v>
+        <v>45.79138679201621</v>
       </c>
       <c r="G31" t="n">
-        <v>62.8952911056912</v>
+        <v>65.90166761738431</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.040346622467041</v>
+        <v>13.93619632720947</v>
       </c>
     </row>
     <row r="32">
@@ -1232,25 +1232,25 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.11769983125033</v>
+        <v>7.178722565051247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03001815205573029</v>
+        <v>0.005295934143612078</v>
       </c>
       <c r="F32" t="n">
-        <v>49.15481590833992</v>
+        <v>33.38020010290014</v>
       </c>
       <c r="G32" t="n">
-        <v>65.07603869558042</v>
+        <v>4.011270643691337</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.032473564147949</v>
+        <v>5.378715515136719</v>
       </c>
     </row>
     <row r="33">
@@ -1258,25 +1258,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>11.5409597568308</v>
+        <v>7.900452503875324</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02920340475524325</v>
+        <v>0.005020338347599278</v>
       </c>
       <c r="F33" t="n">
-        <v>58.93255997585801</v>
+        <v>16.63430536387794</v>
       </c>
       <c r="G33" t="n">
-        <v>35.93607496935047</v>
+        <v>24.25849797049017</v>
       </c>
       <c r="K33" t="n">
-        <v>-10.34228324890137</v>
+        <v>5.736112594604492</v>
       </c>
     </row>
     <row r="34">
@@ -1287,22 +1287,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.355252303360699</v>
+        <v>7.774624896216726</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006840206670740583</v>
+        <v>0.004785161218792609</v>
       </c>
       <c r="F34" t="n">
-        <v>19.90033977021042</v>
+        <v>17.51435284418338</v>
       </c>
       <c r="G34" t="n">
-        <v>26.99191433103945</v>
+        <v>23.1243266763536</v>
       </c>
       <c r="K34" t="n">
-        <v>10.18868255615234</v>
+        <v>5.595798969268799</v>
       </c>
     </row>
     <row r="35">
@@ -1313,22 +1313,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.020102066727453</v>
+        <v>13.91911484827856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.005163271348123748</v>
+        <v>0.02522011054888941</v>
       </c>
       <c r="F35" t="n">
-        <v>21.47249284122832</v>
+        <v>40.6449497375229</v>
       </c>
       <c r="G35" t="n">
-        <v>20.72863425114646</v>
+        <v>57.81294903064312</v>
       </c>
       <c r="K35" t="n">
-        <v>9.94333553314209</v>
+        <v>20.30872344970703</v>
       </c>
     </row>
     <row r="36">
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>16.25542051776746</v>
+        <v>14.52456903039285</v>
       </c>
       <c r="D36" t="n">
         <v>0.8</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03031327946712201</v>
+        <v>0.02660442818570501</v>
       </c>
       <c r="F36" t="n">
-        <v>49.49865089216965</v>
+        <v>42.94180140379277</v>
       </c>
       <c r="G36" t="n">
-        <v>67.72164330950704</v>
+        <v>60.81050555801249</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.993693351745605</v>
+        <v>20.30978584289551</v>
       </c>
     </row>
     <row r="37">
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>14.09645671644518</v>
+        <v>14.79762796081705</v>
       </c>
       <c r="D37" t="n">
         <v>0.8</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02562904990480811</v>
+        <v>0.0272183356173512</v>
       </c>
       <c r="F37" t="n">
-        <v>41.31177599410364</v>
+        <v>44.01213936471316</v>
       </c>
       <c r="G37" t="n">
-        <v>58.70446456508368</v>
+        <v>61.91298337811428</v>
       </c>
       <c r="K37" t="n">
-        <v>20.30834770202637</v>
+        <v>20.30527877807617</v>
       </c>
     </row>
     <row r="38">
@@ -1391,22 +1391,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.784286052549661</v>
+        <v>7.819831612588658</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00729101732167696</v>
+        <v>0.006579895824518935</v>
       </c>
       <c r="F38" t="n">
-        <v>17.31091817640128</v>
+        <v>16.68152508154957</v>
       </c>
       <c r="G38" t="n">
-        <v>30.32353970512933</v>
+        <v>29.29808284724251</v>
       </c>
       <c r="K38" t="n">
-        <v>10.25830459594727</v>
+        <v>9.70451545715332</v>
       </c>
     </row>
     <row r="39">
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>15.04420215523568</v>
+        <v>11.23466221258415</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02776177757882749</v>
+        <v>0.02838329207859229</v>
       </c>
       <c r="F39" t="n">
-        <v>44.95119724163328</v>
+        <v>57.27616989351935</v>
       </c>
       <c r="G39" t="n">
-        <v>63.07820717484805</v>
+        <v>35.11497246851112</v>
       </c>
       <c r="K39" t="n">
-        <v>20.30767250061035</v>
+        <v>-9.837315559387207</v>
       </c>
     </row>
     <row r="40">
@@ -1443,22 +1443,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>7.107912784174645</v>
+        <v>7.366169875620238</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E40" t="n">
-        <v>0.005724948775658822</v>
+        <v>0.00534088963401133</v>
       </c>
       <c r="F40" t="n">
-        <v>21.08753881591694</v>
+        <v>32.0943302791577</v>
       </c>
       <c r="G40" t="n">
-        <v>20.4709639186321</v>
+        <v>4.362829468212909</v>
       </c>
       <c r="K40" t="n">
-        <v>5.141452312469482</v>
+        <v>5.37135124206543</v>
       </c>
     </row>
     <row r="41">
@@ -1466,51 +1466,51 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>7.117567099846179</v>
+        <v>15.77080066644199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005672285044810987</v>
+        <v>0.029309231245389</v>
       </c>
       <c r="F41" t="n">
-        <v>21.04886730220043</v>
+        <v>47.77206953220018</v>
       </c>
       <c r="G41" t="n">
-        <v>20.44224669875231</v>
+        <v>67.35719783221327</v>
       </c>
       <c r="K41" t="n">
-        <v>5.125833988189697</v>
+        <v>-8.791984558105469</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>8.363355245648989</v>
+        <v>8.046528192482818</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01882016565997356</v>
+        <v>0.004659903479826147</v>
       </c>
       <c r="F42" t="n">
-        <v>46.70156421765597</v>
+        <v>16.51380136241914</v>
       </c>
       <c r="G42" t="n">
-        <v>25.78343843780664</v>
+        <v>23.41224044444613</v>
       </c>
       <c r="K42" t="n">
-        <v>-19.7021656036377</v>
+        <v>4.262542247772217</v>
       </c>
     </row>
     <row r="43">
@@ -1518,25 +1518,25 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>11.16062287449345</v>
+        <v>10.38794915523491</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02815957200199763</v>
+        <v>0.004179724141503006</v>
       </c>
       <c r="F43" t="n">
-        <v>56.69794009686129</v>
+        <v>15.54628872198566</v>
       </c>
       <c r="G43" t="n">
-        <v>34.94379434808957</v>
+        <v>24.01227632080122</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.827510833740234</v>
+        <v>2.105981826782227</v>
       </c>
     </row>
     <row r="44">
@@ -1547,22 +1547,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>14.55940941354763</v>
+        <v>10.6176046380047</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02667248288012359</v>
+        <v>0.02707902984905415</v>
       </c>
       <c r="F44" t="n">
-        <v>43.00856212413085</v>
+        <v>61.889769733346</v>
       </c>
       <c r="G44" t="n">
-        <v>61.57240312833966</v>
+        <v>32.13208978152612</v>
       </c>
       <c r="K44" t="n">
-        <v>20.01983451843262</v>
+        <v>10.41403388977051</v>
       </c>
     </row>
     <row r="45">
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>14.69744977856111</v>
+        <v>7.060729260042889</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02699420935022065</v>
+        <v>0.006177174702650876</v>
       </c>
       <c r="F45" t="n">
-        <v>43.61932980637658</v>
+        <v>21.23663580337415</v>
       </c>
       <c r="G45" t="n">
-        <v>61.52391815405689</v>
+        <v>20.95438255828476</v>
       </c>
       <c r="K45" t="n">
-        <v>20.30744743347168</v>
+        <v>5.267672061920166</v>
       </c>
     </row>
     <row r="46">
@@ -1599,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>8.088588795069448</v>
+        <v>7.099898020541032</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008121509807175114</v>
+        <v>0.005140968277010552</v>
       </c>
       <c r="F46" t="n">
-        <v>18.65453321282698</v>
+        <v>21.0094506696006</v>
       </c>
       <c r="G46" t="n">
-        <v>31.57598116496505</v>
+        <v>21.16657344755993</v>
       </c>
       <c r="K46" t="n">
-        <v>19.52001953125</v>
+        <v>9.946737289428711</v>
       </c>
     </row>
     <row r="47">
@@ -1625,48 +1625,48 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>7.931766641047374</v>
+        <v>6.946303030362417</v>
       </c>
       <c r="D47" t="n">
         <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0.005155829291567331</v>
+        <v>0.005672067841166775</v>
       </c>
       <c r="F47" t="n">
-        <v>15.90156225345969</v>
+        <v>21.82711513115627</v>
       </c>
       <c r="G47" t="n">
-        <v>26.64249651910895</v>
+        <v>21.25684602904399</v>
       </c>
       <c r="K47" t="n">
-        <v>9.948295593261719</v>
+        <v>9.754458427429199</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>13.34631764351686</v>
+        <v>10.93472382506803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02384274115813621</v>
+        <v>0.02746291886185302</v>
       </c>
       <c r="F48" t="n">
-        <v>38.34102473777503</v>
+        <v>55.10479504314071</v>
       </c>
       <c r="G48" t="n">
-        <v>55.35707677132571</v>
+        <v>34.37946742726724</v>
       </c>
       <c r="K48" t="n">
-        <v>20.31873893737793</v>
+        <v>-19.66200256347656</v>
       </c>
     </row>
     <row r="49">
@@ -1677,22 +1677,22 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>14.55515823754761</v>
+        <v>7.744693803313537</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02665228242910738</v>
+        <v>0.005062454071355388</v>
       </c>
       <c r="F49" t="n">
-        <v>42.96080017637824</v>
+        <v>17.57438305959631</v>
       </c>
       <c r="G49" t="n">
-        <v>62.06381967112073</v>
+        <v>23.30932113031243</v>
       </c>
       <c r="K49" t="n">
-        <v>20.00593185424805</v>
+        <v>5.711859226226807</v>
       </c>
     </row>
     <row r="50">
@@ -1703,22 +1703,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>14.49518932003936</v>
+        <v>7.047796821103232</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02653274988929512</v>
+        <v>0.005495787627319036</v>
       </c>
       <c r="F50" t="n">
-        <v>42.79096459262797</v>
+        <v>21.25019444715647</v>
       </c>
       <c r="G50" t="n">
-        <v>60.94134185931446</v>
+        <v>21.50055274292595</v>
       </c>
       <c r="K50" t="n">
-        <v>20.31891250610352</v>
+        <v>9.823372840881348</v>
       </c>
     </row>
     <row r="51">
@@ -1729,74 +1729,74 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>14.72490503055218</v>
+        <v>14.169417664924</v>
       </c>
       <c r="D51" t="n">
         <v>0.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02702694886732114</v>
+        <v>0.02577066196488727</v>
       </c>
       <c r="F51" t="n">
-        <v>43.64366724245157</v>
+        <v>41.43520970565614</v>
       </c>
       <c r="G51" t="n">
-        <v>63.09930532681485</v>
+        <v>59.93714308915273</v>
       </c>
       <c r="K51" t="n">
-        <v>19.98798179626465</v>
+        <v>20.02401161193848</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>14.55855028252562</v>
+        <v>15.41148106917698</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02664634642450762</v>
+        <v>0.03264414521586811</v>
       </c>
       <c r="F52" t="n">
-        <v>42.96709798990064</v>
+        <v>46.50732412442824</v>
       </c>
       <c r="G52" t="n">
-        <v>62.42579923581454</v>
+        <v>67.10454011887039</v>
       </c>
       <c r="K52" t="n">
-        <v>19.98918151855469</v>
+        <v>-15.93391895294189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>11.42724114591016</v>
+        <v>7.555363631618909</v>
       </c>
       <c r="D53" t="n">
         <v>0.7</v>
       </c>
       <c r="E53" t="n">
-        <v>0.028935546114959</v>
+        <v>0.007064462498198065</v>
       </c>
       <c r="F53" t="n">
-        <v>58.77223295086799</v>
+        <v>18.71598943746307</v>
       </c>
       <c r="G53" t="n">
-        <v>35.55089973785829</v>
+        <v>28.46758486638105</v>
       </c>
       <c r="K53" t="n">
-        <v>-20.34433746337891</v>
+        <v>10.41221809387207</v>
       </c>
     </row>
     <row r="54">
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>7.623062987016499</v>
+        <v>13.36906013738105</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004767612448547778</v>
+        <v>0.02385306308199071</v>
       </c>
       <c r="F54" t="n">
-        <v>18.7803255756094</v>
+        <v>38.20640932238828</v>
       </c>
       <c r="G54" t="n">
-        <v>21.23869956502198</v>
+        <v>56.13880574210435</v>
       </c>
       <c r="K54" t="n">
-        <v>4.246135234832764</v>
+        <v>20.03914642333984</v>
       </c>
     </row>
     <row r="55">
@@ -1833,22 +1833,22 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>7.749389587781829</v>
+        <v>7.174088289189727</v>
       </c>
       <c r="D55" t="n">
         <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005048953270611462</v>
+        <v>0.00584201157665057</v>
       </c>
       <c r="F55" t="n">
-        <v>17.55203072232673</v>
+        <v>20.66426925850895</v>
       </c>
       <c r="G55" t="n">
-        <v>23.3194068118778</v>
+        <v>21.04747738489294</v>
       </c>
       <c r="K55" t="n">
-        <v>5.705377578735352</v>
+        <v>5.171804428100586</v>
       </c>
     </row>
     <row r="56">
@@ -1859,22 +1859,22 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>6.941591912348864</v>
+        <v>8.041193691426368</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E56" t="n">
-        <v>0.005247120605251209</v>
+        <v>0.004661786379721608</v>
       </c>
       <c r="F56" t="n">
-        <v>21.91285612581268</v>
+        <v>16.5225630438077</v>
       </c>
       <c r="G56" t="n">
-        <v>20.41713419279648</v>
+        <v>23.41399202734019</v>
       </c>
       <c r="K56" t="n">
-        <v>9.912530899047852</v>
+        <v>4.256799221038818</v>
       </c>
     </row>
     <row r="57">
@@ -1885,74 +1885,74 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>7.114791218206747</v>
+        <v>7.94357246064955</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E57" t="n">
-        <v>0.005619023121773679</v>
+        <v>0.004691568175727741</v>
       </c>
       <c r="F57" t="n">
-        <v>21.08312772212346</v>
+        <v>17.42895604299272</v>
       </c>
       <c r="G57" t="n">
-        <v>20.34178320273327</v>
+        <v>22.36693514719202</v>
       </c>
       <c r="K57" t="n">
-        <v>5.110734462738037</v>
+        <v>4.351839065551758</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>10.9415823415032</v>
+        <v>12.34549456957613</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02773978819319045</v>
+        <v>0.02107364289151178</v>
       </c>
       <c r="F58" t="n">
-        <v>57.57347598044078</v>
+        <v>44.63835675439179</v>
       </c>
       <c r="G58" t="n">
-        <v>33.98050759760578</v>
+        <v>43.77626794919109</v>
       </c>
       <c r="K58" t="n">
-        <v>-20.34883117675781</v>
+        <v>50.08773803710938</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>7.927648404177719</v>
+        <v>11.28294342359947</v>
       </c>
       <c r="D59" t="n">
         <v>0.7</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01785617414360579</v>
+        <v>0.02861749693248948</v>
       </c>
       <c r="F59" t="n">
-        <v>47.06736977431388</v>
+        <v>58.96175942422038</v>
       </c>
       <c r="G59" t="n">
-        <v>23.83285784021477</v>
+        <v>34.99076314930296</v>
       </c>
       <c r="K59" t="n">
-        <v>10.17072105407715</v>
+        <v>-20.35052108764648</v>
       </c>
     </row>
     <row r="60">
@@ -1960,25 +1960,25 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>6.95593418971475</v>
+        <v>16.12422340979173</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E60" t="n">
-        <v>0.005420182873695888</v>
+        <v>0.03003095492485524</v>
       </c>
       <c r="F60" t="n">
-        <v>21.79850355582127</v>
+        <v>49.16978004464714</v>
       </c>
       <c r="G60" t="n">
-        <v>20.81956545468278</v>
+        <v>65.14761395330702</v>
       </c>
       <c r="K60" t="n">
-        <v>9.847681045532227</v>
+        <v>-5.032082080841064</v>
       </c>
     </row>
     <row r="61">
@@ -1989,22 +1989,22 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>7.178580419840029</v>
+        <v>7.708765176652882</v>
       </c>
       <c r="D61" t="n">
         <v>0.6</v>
       </c>
       <c r="E61" t="n">
-        <v>0.005683276315903411</v>
+        <v>0.005257607847250291</v>
       </c>
       <c r="F61" t="n">
-        <v>20.46005989559255</v>
+        <v>17.30889113825083</v>
       </c>
       <c r="G61" t="n">
-        <v>22.6615661994797</v>
+        <v>25.22789396415477</v>
       </c>
       <c r="K61" t="n">
-        <v>9.760316848754883</v>
+        <v>9.919544219970703</v>
       </c>
     </row>
     <row r="62">
@@ -2015,48 +2015,48 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>9.330269213942993</v>
+        <v>15.89720986243978</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0231911628998561</v>
+        <v>0.02958239683461748</v>
       </c>
       <c r="F62" t="n">
-        <v>51.62453559474879</v>
+        <v>48.18276683929891</v>
       </c>
       <c r="G62" t="n">
-        <v>28.79075141876474</v>
+        <v>66.61798159173796</v>
       </c>
       <c r="K62" t="n">
-        <v>10.23940086364746</v>
+        <v>20.01688003540039</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>15.2693466077935</v>
+        <v>11.98809655071648</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02825171937158794</v>
+        <v>0.03017485485185166</v>
       </c>
       <c r="F63" t="n">
-        <v>45.81167473847605</v>
+        <v>58.54449136404219</v>
       </c>
       <c r="G63" t="n">
-        <v>64.06580221444321</v>
+        <v>37.64481342581995</v>
       </c>
       <c r="K63" t="n">
-        <v>20.30863761901855</v>
+        <v>-19.66654396057129</v>
       </c>
     </row>
     <row r="64">
@@ -2067,22 +2067,22 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>6.896544019024463</v>
+        <v>14.57450318113582</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E64" t="n">
-        <v>0.007216939872493573</v>
+        <v>0.02668541022542052</v>
       </c>
       <c r="F64" t="n">
-        <v>22.7254443057173</v>
+        <v>43.03254984659765</v>
       </c>
       <c r="G64" t="n">
-        <v>24.41768399756779</v>
+        <v>62.44629608035208</v>
       </c>
       <c r="K64" t="n">
-        <v>10.34260749816895</v>
+        <v>19.99193000793457</v>
       </c>
     </row>
     <row r="65">
@@ -2093,22 +2093,22 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>13.95933026719193</v>
+        <v>8.048022923306803</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02528384161547018</v>
+        <v>0.01000957465566742</v>
       </c>
       <c r="F65" t="n">
-        <v>40.62637051878762</v>
+        <v>26.75490183674066</v>
       </c>
       <c r="G65" t="n">
-        <v>58.74988520404928</v>
+        <v>28.6295139291444</v>
       </c>
       <c r="K65" t="n">
-        <v>20.03146934509277</v>
+        <v>49.34459686279297</v>
       </c>
     </row>
     <row r="66">
@@ -2119,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>7.439277464106861</v>
+        <v>12.91368519350732</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004721655220211288</v>
+        <v>0.02266747588938931</v>
       </c>
       <c r="F66" t="n">
-        <v>31.29569280716903</v>
+        <v>36.14156938509237</v>
       </c>
       <c r="G66" t="n">
-        <v>3.022753364078231</v>
+        <v>54.56299228567732</v>
       </c>
       <c r="K66" t="n">
-        <v>4.625383377075195</v>
+        <v>20.03761863708496</v>
       </c>
     </row>
     <row r="67">
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>7.910046749048788</v>
+        <v>7.846784561449083</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004934575644343383</v>
+        <v>0.006716442930435124</v>
       </c>
       <c r="F67" t="n">
-        <v>16.61765944230692</v>
+        <v>16.59076556610891</v>
       </c>
       <c r="G67" t="n">
-        <v>24.19220791002516</v>
+        <v>29.896569860485</v>
       </c>
       <c r="K67" t="n">
-        <v>5.690435409545898</v>
+        <v>9.39381217956543</v>
       </c>
     </row>
     <row r="68">
@@ -2168,25 +2168,25 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>16.12805985230986</v>
+        <v>13.98337306344905</v>
       </c>
       <c r="D68" t="n">
         <v>0.8</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03005996585800898</v>
+        <v>0.02532555639881696</v>
       </c>
       <c r="F68" t="n">
-        <v>49.11189057578957</v>
+        <v>40.65062568702354</v>
       </c>
       <c r="G68" t="n">
-        <v>68.55898240376789</v>
+        <v>59.31197236594875</v>
       </c>
       <c r="K68" t="n">
-        <v>-8.877056121826172</v>
+        <v>20.02242851257324</v>
       </c>
     </row>
     <row r="69">
@@ -2197,22 +2197,22 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>6.886379954313366</v>
+        <v>13.94076858823149</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E69" t="n">
-        <v>0.00571252629875075</v>
+        <v>0.02522952128472489</v>
       </c>
       <c r="F69" t="n">
-        <v>22.17517364407758</v>
+        <v>40.49951324951276</v>
       </c>
       <c r="G69" t="n">
-        <v>20.99131859985733</v>
+        <v>58.96358347131834</v>
       </c>
       <c r="K69" t="n">
-        <v>9.736978530883789</v>
+        <v>20.02645111083984</v>
       </c>
     </row>
     <row r="70">
@@ -2223,22 +2223,22 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>14.83189014234346</v>
+        <v>7.333068081113395</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02727676493382715</v>
+        <v>0.006996405530746637</v>
       </c>
       <c r="F70" t="n">
-        <v>44.0737727641889</v>
+        <v>20.07290068715372</v>
       </c>
       <c r="G70" t="n">
-        <v>63.33595328365734</v>
+        <v>26.94799746377655</v>
       </c>
       <c r="K70" t="n">
-        <v>19.99798774719238</v>
+        <v>10.28598785400391</v>
       </c>
     </row>
     <row r="71">
@@ -2246,25 +2246,25 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>11.90057572188663</v>
+        <v>13.80234173433296</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03003460450600697</v>
+        <v>0.0248813624265894</v>
       </c>
       <c r="F71" t="n">
-        <v>59.29890568103273</v>
+        <v>39.86609984308942</v>
       </c>
       <c r="G71" t="n">
-        <v>37.17601494264642</v>
+        <v>58.76751466393267</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.861710548400879</v>
+        <v>20.01827239990234</v>
       </c>
     </row>
     <row r="72">
@@ -2275,48 +2275,48 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>7.866075919340921</v>
+        <v>13.12694723432406</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E72" t="n">
-        <v>0.005335589942110217</v>
+        <v>0.02323836505191628</v>
       </c>
       <c r="F72" t="n">
-        <v>16.27565936939764</v>
+        <v>37.1560477675266</v>
       </c>
       <c r="G72" t="n">
-        <v>26.56129818485267</v>
+        <v>55.18443684667439</v>
       </c>
       <c r="K72" t="n">
-        <v>9.880228996276855</v>
+        <v>20.04051208496094</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>12.19635586653194</v>
+        <v>14.61278180893303</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03064912974302005</v>
+        <v>0.02679836819214622</v>
       </c>
       <c r="F73" t="n">
-        <v>58.75401100992901</v>
+        <v>43.2474802395887</v>
       </c>
       <c r="G73" t="n">
-        <v>38.36386923641103</v>
+        <v>61.51072049334783</v>
       </c>
       <c r="K73" t="n">
-        <v>-19.67099761962891</v>
+        <v>20.32144546508789</v>
       </c>
     </row>
     <row r="74">
@@ -2327,22 +2327,22 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>10.93473922201764</v>
+        <v>14.76770646654244</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003521461036368397</v>
+        <v>0.02713829589390443</v>
       </c>
       <c r="F74" t="n">
-        <v>5.126145400347889</v>
+        <v>43.82014380061081</v>
       </c>
       <c r="G74" t="n">
-        <v>21.67633391223319</v>
+        <v>62.81937087556351</v>
       </c>
       <c r="K74" t="n">
-        <v>4.521148681640625</v>
+        <v>20.00831413269043</v>
       </c>
     </row>
     <row r="75">
@@ -2353,22 +2353,22 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>13.35064333927339</v>
+        <v>7.047895181985385</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02379340977672405</v>
+        <v>0.005562874477934281</v>
       </c>
       <c r="F75" t="n">
-        <v>38.0628335304957</v>
+        <v>21.24172788458382</v>
       </c>
       <c r="G75" t="n">
-        <v>56.30650057199214</v>
+        <v>21.6325665702181</v>
       </c>
       <c r="K75" t="n">
-        <v>20.03554534912109</v>
+        <v>9.798999786376953</v>
       </c>
     </row>
     <row r="76">
@@ -2376,25 +2376,25 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>13.04972739634815</v>
+        <v>10.58395442017957</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02312756171122008</v>
+        <v>0.02701823867212428</v>
       </c>
       <c r="F76" t="n">
-        <v>37.22996623683151</v>
+        <v>60.38864887272118</v>
       </c>
       <c r="G76" t="n">
-        <v>53.84204544393812</v>
+        <v>32.22891319728803</v>
       </c>
       <c r="K76" t="n">
-        <v>20.3205509185791</v>
+        <v>-10.38754844665527</v>
       </c>
     </row>
     <row r="77">
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>15.04045459419397</v>
+        <v>11.49949717177542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02773802096189104</v>
+        <v>0.02114267589204057</v>
       </c>
       <c r="F77" t="n">
-        <v>44.90838140294366</v>
+        <v>29.17622223126001</v>
       </c>
       <c r="G77" t="n">
-        <v>64.31109443926562</v>
+        <v>49.31842103975773</v>
       </c>
       <c r="K77" t="n">
-        <v>19.98935508728027</v>
+        <v>-10.13766193389893</v>
       </c>
     </row>
     <row r="78">
@@ -2431,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>10.9043001742005</v>
+        <v>7.905865658351655</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0277785422100378</v>
+        <v>0.004970076345596237</v>
       </c>
       <c r="F78" t="n">
-        <v>61.69894810537048</v>
+        <v>16.62592363935551</v>
       </c>
       <c r="G78" t="n">
-        <v>33.17326392763078</v>
+        <v>24.21761686849501</v>
       </c>
       <c r="K78" t="n">
-        <v>10.40120506286621</v>
+        <v>5.70875358581543</v>
       </c>
     </row>
     <row r="79">
@@ -2457,22 +2457,22 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>7.63384766874359</v>
+        <v>14.53751403674017</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005415984285761341</v>
+        <v>0.02661581371379183</v>
       </c>
       <c r="F79" t="n">
-        <v>17.73865153475604</v>
+        <v>42.89712632467041</v>
       </c>
       <c r="G79" t="n">
-        <v>25.05164885331426</v>
+        <v>61.8218967025964</v>
       </c>
       <c r="K79" t="n">
-        <v>9.859318733215332</v>
+        <v>20.01143455505371</v>
       </c>
     </row>
     <row r="80">
@@ -2483,22 +2483,22 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>7.159237630643946</v>
+        <v>14.13514870980612</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0059104512702926</v>
+        <v>0.02572137932320468</v>
       </c>
       <c r="F80" t="n">
-        <v>20.73020527550186</v>
+        <v>41.48004741717788</v>
       </c>
       <c r="G80" t="n">
-        <v>21.07520241185071</v>
+        <v>58.80453689847771</v>
       </c>
       <c r="K80" t="n">
-        <v>5.191603183746338</v>
+        <v>20.30655860900879</v>
       </c>
     </row>
     <row r="81">
@@ -2509,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>6.894454321696199</v>
+        <v>7.856659545247588</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E81" t="n">
-        <v>0.007373131157455461</v>
+        <v>0.004731865176275521</v>
       </c>
       <c r="F81" t="n">
-        <v>22.78466623216045</v>
+        <v>17.1329795839056</v>
       </c>
       <c r="G81" t="n">
-        <v>24.51781899118276</v>
+        <v>23.07088917182105</v>
       </c>
       <c r="K81" t="n">
-        <v>10.4362850189209</v>
+        <v>4.119658946990967</v>
       </c>
     </row>
     <row r="82">
@@ -2535,22 +2535,22 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>7.619561110667496</v>
+        <v>7.874554706003292</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>0.005056848570366507</v>
+        <v>0.00758154338511311</v>
       </c>
       <c r="F82" t="n">
-        <v>18.33214017293009</v>
+        <v>16.48167972896594</v>
       </c>
       <c r="G82" t="n">
-        <v>22.51685562329241</v>
+        <v>30.40795488480767</v>
       </c>
       <c r="K82" t="n">
-        <v>5.679030418395996</v>
+        <v>9.977564811706543</v>
       </c>
     </row>
     <row r="83">
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>14.66777866919548</v>
+        <v>14.42591260927128</v>
       </c>
       <c r="D83" t="n">
         <v>0.8</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02693254070441398</v>
+        <v>0.02635232612748304</v>
       </c>
       <c r="F83" t="n">
-        <v>43.54177561920989</v>
+        <v>42.43231035713887</v>
       </c>
       <c r="G83" t="n">
-        <v>61.13665012757374</v>
+        <v>61.58987847051638</v>
       </c>
       <c r="K83" t="n">
-        <v>20.30108261108398</v>
+        <v>20.00459098815918</v>
       </c>
     </row>
     <row r="84">
@@ -2587,48 +2587,48 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>7.101080251800042</v>
+        <v>15.6446042331074</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E84" t="n">
-        <v>0.006033178592891932</v>
+        <v>0.03311592730628515</v>
       </c>
       <c r="F84" t="n">
-        <v>21.03580272700317</v>
+        <v>47.32909084185783</v>
       </c>
       <c r="G84" t="n">
-        <v>20.94300546070846</v>
+        <v>67.29217136909664</v>
       </c>
       <c r="K84" t="n">
-        <v>5.227511882781982</v>
+        <v>14.03532791137695</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>16.00586043396629</v>
+        <v>8.745732013403343</v>
       </c>
       <c r="D85" t="n">
         <v>0.7</v>
       </c>
       <c r="E85" t="n">
-        <v>0.034070621259021</v>
+        <v>0.01986037057672973</v>
       </c>
       <c r="F85" t="n">
-        <v>48.81348273676458</v>
+        <v>48.478750649258</v>
       </c>
       <c r="G85" t="n">
-        <v>69.27764831411713</v>
+        <v>27.04533222109574</v>
       </c>
       <c r="K85" t="n">
-        <v>-15.7816915512085</v>
+        <v>-9.842371940612793</v>
       </c>
     </row>
     <row r="86">
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>10.42123350172297</v>
+        <v>15.36210289721516</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02651684787952324</v>
+        <v>0.0256785722758918</v>
       </c>
       <c r="F86" t="n">
-        <v>63.31016714470986</v>
+        <v>48.6483841798761</v>
       </c>
       <c r="G86" t="n">
-        <v>31.2642232309162</v>
+        <v>57.96162512017969</v>
       </c>
       <c r="K86" t="n">
-        <v>9.98921012878418</v>
+        <v>-5.030026912689209</v>
       </c>
     </row>
     <row r="87">
@@ -2662,25 +2662,25 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>16.4602403130992</v>
+        <v>7.879710088115963</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0306967768097201</v>
+        <v>0.005569729842471375</v>
       </c>
       <c r="F87" t="n">
-        <v>50.3804455973375</v>
+        <v>16.48606698420771</v>
       </c>
       <c r="G87" t="n">
-        <v>66.08430604113857</v>
+        <v>25.07413118894305</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.033307075500488</v>
+        <v>5.088684558868408</v>
       </c>
     </row>
     <row r="88">
@@ -2691,22 +2691,22 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>7.573632548194976</v>
+        <v>7.811896088552941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E88" t="n">
-        <v>0.005417128750692014</v>
+        <v>0.004728472789400574</v>
       </c>
       <c r="F88" t="n">
-        <v>18.4519840488431</v>
+        <v>17.85162057341503</v>
       </c>
       <c r="G88" t="n">
-        <v>22.77622784909694</v>
+        <v>22.08588769881873</v>
       </c>
       <c r="K88" t="n">
-        <v>5.889350891113281</v>
+        <v>4.278779983520508</v>
       </c>
     </row>
     <row r="89">
@@ -2714,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>13.38102405510174</v>
+        <v>7.78348514204112</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02224187864784034</v>
+        <v>0.004608079362186579</v>
       </c>
       <c r="F89" t="n">
-        <v>43.27941150727213</v>
+        <v>17.52639584605159</v>
       </c>
       <c r="G89" t="n">
-        <v>49.9249979415555</v>
+        <v>22.98237328575724</v>
       </c>
       <c r="K89" t="n">
-        <v>-4.774262428283691</v>
+        <v>7.800424098968506</v>
       </c>
     </row>
     <row r="90">
@@ -2743,22 +2743,22 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>15.23972138961552</v>
+        <v>13.93208283892148</v>
       </c>
       <c r="D90" t="n">
         <v>0.8</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0281877672396225</v>
+        <v>0.02523242936480759</v>
       </c>
       <c r="F90" t="n">
-        <v>45.70460271763606</v>
+        <v>40.59044510705905</v>
       </c>
       <c r="G90" t="n">
-        <v>63.83013530066587</v>
+        <v>58.28003122265048</v>
       </c>
       <c r="K90" t="n">
-        <v>20.30397796630859</v>
+        <v>20.31686401367188</v>
       </c>
     </row>
     <row r="91">
@@ -2769,22 +2769,22 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>12.97577187567533</v>
+        <v>7.472234466439766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E91" t="n">
-        <v>0.02289849182836387</v>
+        <v>0.007380012132555272</v>
       </c>
       <c r="F91" t="n">
-        <v>36.72313420986586</v>
+        <v>19.3352890588774</v>
       </c>
       <c r="G91" t="n">
-        <v>53.96775370143224</v>
+        <v>28.14616361825095</v>
       </c>
       <c r="K91" t="n">
-        <v>20.3291187286377</v>
+        <v>10.56743240356445</v>
       </c>
     </row>
     <row r="92">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>7.837299393397951</v>
+        <v>13.72706405543328</v>
       </c>
       <c r="D92" t="n">
         <v>0.8</v>
       </c>
       <c r="E92" t="n">
-        <v>0.007297082058144984</v>
+        <v>0.02469785733759796</v>
       </c>
       <c r="F92" t="n">
-        <v>17.98317272302651</v>
+        <v>39.54866584515455</v>
       </c>
       <c r="G92" t="n">
-        <v>30.98682568137923</v>
+        <v>58.45047536504754</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.415808200836182</v>
+        <v>20.01895904541016</v>
       </c>
     </row>
     <row r="93">
@@ -2818,25 +2818,25 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>12.61486697900109</v>
+        <v>12.48876274368546</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02013363164974315</v>
+        <v>0.02168262217102263</v>
       </c>
       <c r="F93" t="n">
-        <v>37.90033373881649</v>
+        <v>34.87186919114609</v>
       </c>
       <c r="G93" t="n">
-        <v>49.06280312252142</v>
+        <v>51.45120571398933</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.733130931854248</v>
+        <v>20.06091117858887</v>
       </c>
     </row>
     <row r="94">
@@ -2844,25 +2844,25 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>7.817030342811608</v>
+        <v>7.17349178453715</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E94" t="n">
-        <v>0.007115871193646213</v>
+        <v>0.005890870077257265</v>
       </c>
       <c r="F94" t="n">
-        <v>17.62718184357593</v>
+        <v>20.65262223416375</v>
       </c>
       <c r="G94" t="n">
-        <v>31.19406163337096</v>
+        <v>21.12601516746541</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.360203266143799</v>
+        <v>5.185527324676514</v>
       </c>
     </row>
     <row r="95">
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>15.4046574074964</v>
+        <v>7.654219340916948</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E95" t="n">
-        <v>0.02853318972745254</v>
+        <v>0.006182676286776773</v>
       </c>
       <c r="F95" t="n">
-        <v>46.34537434639817</v>
+        <v>17.91443998480727</v>
       </c>
       <c r="G95" t="n">
-        <v>65.80875081517058</v>
+        <v>28.65946765336116</v>
       </c>
       <c r="K95" t="n">
-        <v>19.98305892944336</v>
+        <v>9.825080871582031</v>
       </c>
     </row>
     <row r="96">
@@ -2896,25 +2896,25 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>13.57223549844661</v>
+        <v>7.797092038492523</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02438154869770382</v>
+        <v>0.007858209115790844</v>
       </c>
       <c r="F96" t="n">
-        <v>39.19649456241625</v>
+        <v>17.47244250711916</v>
       </c>
       <c r="G96" t="n">
-        <v>56.51128523434223</v>
+        <v>30.97514488490675</v>
       </c>
       <c r="K96" t="n">
-        <v>20.31739234924316</v>
+        <v>-9.690584182739258</v>
       </c>
     </row>
     <row r="97">
@@ -2925,48 +2925,48 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>14.84217097869575</v>
+        <v>7.727968194631997</v>
       </c>
       <c r="D97" t="n">
         <v>0.8</v>
       </c>
       <c r="E97" t="n">
-        <v>0.02723057764069927</v>
+        <v>0.007871327112449261</v>
       </c>
       <c r="F97" t="n">
-        <v>44.13198149269669</v>
+        <v>19.95778524355666</v>
       </c>
       <c r="G97" t="n">
-        <v>64.00263823819526</v>
+        <v>29.5757308485658</v>
       </c>
       <c r="K97" t="n">
-        <v>19.91915893554688</v>
+        <v>19.62287139892578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>11.25530891866352</v>
+        <v>9.932598472773142</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E98" t="n">
-        <v>0.02858712786608955</v>
+        <v>0.004234876806310012</v>
       </c>
       <c r="F98" t="n">
-        <v>62.80605199565782</v>
+        <v>17.84814590573878</v>
       </c>
       <c r="G98" t="n">
-        <v>34.23473187222667</v>
+        <v>21.57091680325771</v>
       </c>
       <c r="K98" t="n">
-        <v>-19.96310043334961</v>
+        <v>2.364847421646118</v>
       </c>
     </row>
     <row r="99">
@@ -2974,25 +2974,25 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>15.24793993883457</v>
+        <v>7.331125625443662</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02545456718118574</v>
+        <v>0.004578392647580039</v>
       </c>
       <c r="F99" t="n">
-        <v>48.13045952044682</v>
+        <v>20.18262787816406</v>
       </c>
       <c r="G99" t="n">
-        <v>57.75354831267342</v>
+        <v>20.27229002010338</v>
       </c>
       <c r="K99" t="n">
-        <v>-5.029305934906006</v>
+        <v>7.646755695343018</v>
       </c>
     </row>
     <row r="100">
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>15.71119467770247</v>
+        <v>15.83267884603162</v>
       </c>
       <c r="D100" t="n">
         <v>0.8</v>
       </c>
       <c r="E100" t="n">
-        <v>0.029194773826315</v>
+        <v>0.02945175154698418</v>
       </c>
       <c r="F100" t="n">
-        <v>47.5147723397776</v>
+        <v>47.95522687867394</v>
       </c>
       <c r="G100" t="n">
-        <v>66.76515912661935</v>
+        <v>66.85259090891014</v>
       </c>
       <c r="K100" t="n">
-        <v>19.9941291809082</v>
+        <v>16.29286003112793</v>
       </c>
     </row>
     <row r="101">
@@ -3026,25 +3026,25 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>9.981383286335374</v>
+        <v>14.28527494747234</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02499292724938615</v>
+        <v>0.02606133088378704</v>
       </c>
       <c r="F101" t="n">
-        <v>53.15503563686127</v>
+        <v>42.02708233725907</v>
       </c>
       <c r="G101" t="n">
-        <v>31.07848932695918</v>
+        <v>59.64515585641727</v>
       </c>
       <c r="K101" t="n">
-        <v>-9.781427383422852</v>
+        <v>20.30866432189941</v>
       </c>
     </row>
     <row r="102">
@@ -3055,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>15.73400299543967</v>
+        <v>15.15584710605632</v>
       </c>
       <c r="D102" t="n">
         <v>0.8</v>
       </c>
       <c r="E102" t="n">
-        <v>0.02924391392051651</v>
+        <v>0.02796167088301704</v>
       </c>
       <c r="F102" t="n">
-        <v>47.57591764205438</v>
+        <v>45.38642943225157</v>
       </c>
       <c r="G102" t="n">
-        <v>66.28340124854621</v>
+        <v>65.16075736887232</v>
       </c>
       <c r="K102" t="n">
-        <v>20.33609580993652</v>
+        <v>19.94916343688965</v>
       </c>
     </row>
     <row r="103">
@@ -3078,25 +3078,25 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>11.11334168943976</v>
+        <v>13.28873835077263</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02804754495093729</v>
+        <v>0.02368049092151803</v>
       </c>
       <c r="F103" t="n">
-        <v>56.6481972351291</v>
+        <v>38.00450874002842</v>
       </c>
       <c r="G103" t="n">
-        <v>34.77698668749771</v>
+        <v>55.37962133031783</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.827607154846191</v>
+        <v>20.32450866699219</v>
       </c>
     </row>
     <row r="104">
@@ -3104,25 +3104,25 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>7.244968089245448</v>
+        <v>10.56537503942259</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E104" t="n">
-        <v>0.005854737784035379</v>
+        <v>0.02687609675223477</v>
       </c>
       <c r="F104" t="n">
-        <v>20.24412973229408</v>
+        <v>63.30958172681423</v>
       </c>
       <c r="G104" t="n">
-        <v>21.4886926527051</v>
+        <v>31.76102195116711</v>
       </c>
       <c r="K104" t="n">
-        <v>5.172898292541504</v>
+        <v>-10.42450523376465</v>
       </c>
     </row>
     <row r="105">
@@ -3133,22 +3133,22 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>7.834294990140026</v>
+        <v>6.905270322307854</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005355314140885429</v>
+        <v>0.007074770962858886</v>
       </c>
       <c r="F105" t="n">
-        <v>16.87979185726492</v>
+        <v>22.63639619699245</v>
       </c>
       <c r="G105" t="n">
-        <v>24.36709487050318</v>
+        <v>24.37460040834301</v>
       </c>
       <c r="K105" t="n">
-        <v>6.68390941619873</v>
+        <v>10.25361156463623</v>
       </c>
     </row>
     <row r="106">
@@ -3159,22 +3159,22 @@
         <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>15.4394284362701</v>
+        <v>16.05259222882475</v>
       </c>
       <c r="D106" t="n">
         <v>0.9</v>
       </c>
       <c r="E106" t="n">
-        <v>0.02565827873430113</v>
+        <v>0.02664633517464433</v>
       </c>
       <c r="F106" t="n">
-        <v>47.94756865590584</v>
+        <v>49.51447773714604</v>
       </c>
       <c r="G106" t="n">
-        <v>59.59731959445992</v>
+        <v>62.73715386208735</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.017938137054443</v>
+        <v>-8.341618537902832</v>
       </c>
     </row>
     <row r="107">
@@ -3182,25 +3182,25 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>12.51552538048759</v>
+        <v>15.78835547452316</v>
       </c>
       <c r="D107" t="n">
         <v>0.8</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02172381710287261</v>
+        <v>0.0293471259313385</v>
       </c>
       <c r="F107" t="n">
-        <v>34.85810320529666</v>
+        <v>47.89539467724773</v>
       </c>
       <c r="G107" t="n">
-        <v>51.79187631164804</v>
+        <v>64.43032390210071</v>
       </c>
       <c r="K107" t="n">
-        <v>20.05832862854004</v>
+        <v>-5.028650760650635</v>
       </c>
     </row>
     <row r="108">
@@ -3211,22 +3211,22 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>15.04756827133782</v>
+        <v>14.75440571178661</v>
       </c>
       <c r="D108" t="n">
         <v>0.8</v>
       </c>
       <c r="E108" t="n">
-        <v>0.02776330382710622</v>
+        <v>0.02710066802248561</v>
       </c>
       <c r="F108" t="n">
-        <v>44.93120412764333</v>
+        <v>43.76238735863009</v>
       </c>
       <c r="G108" t="n">
-        <v>63.93462304750418</v>
+        <v>63.05992454477687</v>
       </c>
       <c r="K108" t="n">
-        <v>20.00663948059082</v>
+        <v>19.99677467346191</v>
       </c>
     </row>
     <row r="109">
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>14.98854219308071</v>
+        <v>14.3702414209871</v>
       </c>
       <c r="D109" t="n">
         <v>0.8</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02758360851744646</v>
+        <v>0.02621925939528636</v>
       </c>
       <c r="F109" t="n">
-        <v>44.71939321580415</v>
+        <v>42.20000286432041</v>
       </c>
       <c r="G109" t="n">
-        <v>64.52583740460483</v>
+        <v>61.45391422353789</v>
       </c>
       <c r="K109" t="n">
-        <v>19.943115234375</v>
+        <v>20.0010929107666</v>
       </c>
     </row>
     <row r="110">
@@ -3263,22 +3263,22 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>7.69064045060853</v>
+        <v>8.449996261765916</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E110" t="n">
-        <v>0.004745602935575208</v>
+        <v>0.00597200977157469</v>
       </c>
       <c r="F110" t="n">
-        <v>18.64476950500488</v>
+        <v>12.01083761752131</v>
       </c>
       <c r="G110" t="n">
-        <v>21.24707126540451</v>
+        <v>31.39968918565354</v>
       </c>
       <c r="K110" t="n">
-        <v>4.315741062164307</v>
+        <v>3.054515838623047</v>
       </c>
     </row>
     <row r="111">
@@ -3289,22 +3289,22 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>7.108208001477256</v>
+        <v>7.564406531172037</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005855099106536595</v>
+        <v>0.01676655621955496</v>
       </c>
       <c r="F111" t="n">
-        <v>21.04509066957586</v>
+        <v>45.08954749607703</v>
       </c>
       <c r="G111" t="n">
-        <v>20.68451654968282</v>
+        <v>22.6367046995652</v>
       </c>
       <c r="K111" t="n">
-        <v>5.178628444671631</v>
+        <v>10.20713233947754</v>
       </c>
     </row>
     <row r="112">
@@ -3315,22 +3315,22 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>6.882125732908533</v>
+        <v>13.47861497350211</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E112" t="n">
-        <v>0.005732750769414157</v>
+        <v>0.02412693686306805</v>
       </c>
       <c r="F112" t="n">
-        <v>22.19927484548741</v>
+        <v>38.67522536504584</v>
       </c>
       <c r="G112" t="n">
-        <v>21.00710571732944</v>
+        <v>56.57365321360201</v>
       </c>
       <c r="K112" t="n">
-        <v>9.729921340942383</v>
+        <v>20.03877639770508</v>
       </c>
     </row>
     <row r="113">
@@ -3341,22 +3341,22 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>10.39194985204258</v>
+        <v>10.41832102427229</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02653785781780844</v>
+        <v>0.002647148958907762</v>
       </c>
       <c r="F113" t="n">
-        <v>61.51244582918098</v>
+        <v>10.66385292006334</v>
       </c>
       <c r="G113" t="n">
-        <v>31.38690057134941</v>
+        <v>18.87560543948437</v>
       </c>
       <c r="K113" t="n">
-        <v>9.592716217041016</v>
+        <v>4.488338947296143</v>
       </c>
     </row>
     <row r="114">
@@ -3367,22 +3367,22 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>7.036880401401135</v>
+        <v>6.896541525188034</v>
       </c>
       <c r="D114" t="n">
         <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>0.007078188125096194</v>
+        <v>0.005523944950337477</v>
       </c>
       <c r="F114" t="n">
-        <v>21.68730575280968</v>
+        <v>22.13057614576045</v>
       </c>
       <c r="G114" t="n">
-        <v>24.6690260687404</v>
+        <v>20.67919582005781</v>
       </c>
       <c r="K114" t="n">
-        <v>9.532999992370605</v>
+        <v>9.804652214050293</v>
       </c>
     </row>
     <row r="115">
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>7.492164946005942</v>
+        <v>8.141475111311872</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E115" t="n">
-        <v>0.004708695827690828</v>
+        <v>0.004621917687570873</v>
       </c>
       <c r="F115" t="n">
-        <v>30.90961991587814</v>
+        <v>15.97457182950199</v>
       </c>
       <c r="G115" t="n">
-        <v>3.113169452290617</v>
+        <v>23.94295790203211</v>
       </c>
       <c r="K115" t="n">
-        <v>4.625465393066406</v>
+        <v>4.257379531860352</v>
       </c>
     </row>
     <row r="116">
@@ -3419,22 +3419,22 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>7.061987026640678</v>
+        <v>7.272234972693073</v>
       </c>
       <c r="D116" t="n">
         <v>0.5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.006102306682494071</v>
+        <v>0.005524743909168376</v>
       </c>
       <c r="F116" t="n">
-        <v>21.24653458649281</v>
+        <v>20.19859803556378</v>
       </c>
       <c r="G116" t="n">
-        <v>20.83374037950217</v>
+        <v>21.11230851565374</v>
       </c>
       <c r="K116" t="n">
-        <v>5.247677326202393</v>
+        <v>5.077489376068115</v>
       </c>
     </row>
     <row r="117">
@@ -3442,51 +3442,51 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>16.03212471223972</v>
+        <v>13.91389242691695</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0340445870540297</v>
+        <v>0.02514786758687838</v>
       </c>
       <c r="F117" t="n">
-        <v>48.81885681654104</v>
+        <v>40.32433074224946</v>
       </c>
       <c r="G117" t="n">
-        <v>68.76791648324739</v>
+        <v>59.31845227678184</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.743505477905273</v>
+        <v>20.01473999023438</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>10.77516852809703</v>
+        <v>15.69075974359357</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02746233155842085</v>
+        <v>0.02917989322836845</v>
       </c>
       <c r="F118" t="n">
-        <v>59.63320779954899</v>
+        <v>47.91858754840608</v>
       </c>
       <c r="G118" t="n">
-        <v>33.0337867023042</v>
+        <v>62.46212383289613</v>
       </c>
       <c r="K118" t="n">
-        <v>-19.90151596069336</v>
+        <v>-5.040980815887451</v>
       </c>
     </row>
     <row r="119">
@@ -3497,22 +3497,22 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>7.102240877522551</v>
+        <v>15.01348594374636</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E119" t="n">
-        <v>0.005864324862495151</v>
+        <v>0.02769549095735519</v>
       </c>
       <c r="F119" t="n">
-        <v>21.07707232712581</v>
+        <v>44.8479930963199</v>
       </c>
       <c r="G119" t="n">
-        <v>20.66521904236615</v>
+        <v>62.77818300991272</v>
       </c>
       <c r="K119" t="n">
-        <v>5.181507110595703</v>
+        <v>20.30206871032715</v>
       </c>
     </row>
     <row r="120">
@@ -3523,22 +3523,22 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>14.12614178254691</v>
+        <v>6.941887983109511</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0257052030468818</v>
+        <v>0.005301454583163112</v>
       </c>
       <c r="F120" t="n">
-        <v>41.47371111833819</v>
+        <v>21.90094858142129</v>
       </c>
       <c r="G120" t="n">
-        <v>58.6497057763575</v>
+        <v>20.51594647084392</v>
       </c>
       <c r="K120" t="n">
-        <v>20.30470657348633</v>
+        <v>9.892637252807617</v>
       </c>
     </row>
     <row r="121">
@@ -3546,25 +3546,25 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>14.62555436180254</v>
+        <v>7.653037056795439</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02679057336291767</v>
+        <v>0.007886061179100016</v>
       </c>
       <c r="F121" t="n">
-        <v>43.24118181986877</v>
+        <v>18.41238771077926</v>
       </c>
       <c r="G121" t="n">
-        <v>62.84140578449622</v>
+        <v>29.87500602303827</v>
       </c>
       <c r="K121" t="n">
-        <v>19.9772834777832</v>
+        <v>-9.69919490814209</v>
       </c>
     </row>
     <row r="122">
@@ -3575,22 +3575,22 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>9.152103264336342</v>
+        <v>7.467091698999223</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02271497570978355</v>
+        <v>0.00680007195134848</v>
       </c>
       <c r="F122" t="n">
-        <v>51.37464880280292</v>
+        <v>18.97838672075119</v>
       </c>
       <c r="G122" t="n">
-        <v>28.13326548327174</v>
+        <v>26.97163061841741</v>
       </c>
       <c r="K122" t="n">
-        <v>10.24199390411377</v>
+        <v>9.765751838684082</v>
       </c>
     </row>
     <row r="123">
@@ -3601,22 +3601,22 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>9.968983220213865</v>
+        <v>7.991144773310689</v>
       </c>
       <c r="D123" t="n">
         <v>0.5</v>
       </c>
       <c r="E123" t="n">
-        <v>0.004258482389276244</v>
+        <v>0.004361131259920527</v>
       </c>
       <c r="F123" t="n">
-        <v>17.67085658593484</v>
+        <v>16.34696574043467</v>
       </c>
       <c r="G123" t="n">
-        <v>21.82407535850591</v>
+        <v>24.0497331496125</v>
       </c>
       <c r="K123" t="n">
-        <v>2.25395941734314</v>
+        <v>7.682228088378906</v>
       </c>
     </row>
     <row r="124">
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>9.98788892857371</v>
+        <v>8.086970696292635</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E124" t="n">
-        <v>0.00415507444329876</v>
+        <v>0.004646228466571854</v>
       </c>
       <c r="F124" t="n">
-        <v>17.55827262161917</v>
+        <v>16.43439207491605</v>
       </c>
       <c r="G124" t="n">
-        <v>21.68012011938931</v>
+        <v>23.42333126713396</v>
       </c>
       <c r="K124" t="n">
-        <v>2.812114953994751</v>
+        <v>4.300090789794922</v>
       </c>
     </row>
     <row r="125">
@@ -3653,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>13.96894988609272</v>
+        <v>7.46578287046392</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E125" t="n">
-        <v>0.02531039651464546</v>
+        <v>0.007018608994625973</v>
       </c>
       <c r="F125" t="n">
-        <v>40.68627804820674</v>
+        <v>19.2636187145749</v>
       </c>
       <c r="G125" t="n">
-        <v>58.68356481079608</v>
+        <v>27.82916555072044</v>
       </c>
       <c r="K125" t="n">
-        <v>20.03298377990723</v>
+        <v>10.34569358825684</v>
       </c>
     </row>
     <row r="126">
@@ -3679,22 +3679,22 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>7.78178608951831</v>
+        <v>6.989646070230288</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E126" t="n">
-        <v>0.004809692868465819</v>
+        <v>0.007383730407788758</v>
       </c>
       <c r="F126" t="n">
-        <v>17.46084661896825</v>
+        <v>22.23120965983137</v>
       </c>
       <c r="G126" t="n">
-        <v>23.1997070169427</v>
+        <v>25.092210926996</v>
       </c>
       <c r="K126" t="n">
-        <v>5.601546764373779</v>
+        <v>10.45373344421387</v>
       </c>
     </row>
     <row r="127">
@@ -3702,25 +3702,25 @@
         <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>12.71959473978074</v>
+        <v>15.56138161321227</v>
       </c>
       <c r="D127" t="n">
         <v>0.8</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02220719237880257</v>
+        <v>0.02887382462303548</v>
       </c>
       <c r="F127" t="n">
-        <v>35.49945804442278</v>
+        <v>46.9766043001021</v>
       </c>
       <c r="G127" t="n">
-        <v>53.1683350355423</v>
+        <v>64.30856542150713</v>
       </c>
       <c r="K127" t="n">
-        <v>20.04945373535156</v>
+        <v>-5.019690990447998</v>
       </c>
     </row>
     <row r="128">
@@ -3731,22 +3731,22 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>15.68019223836764</v>
+        <v>7.386867835449525</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02912618297787782</v>
+        <v>0.005270383434488397</v>
       </c>
       <c r="F128" t="n">
-        <v>47.54393392353806</v>
+        <v>31.91058668605999</v>
       </c>
       <c r="G128" t="n">
-        <v>63.79001491236157</v>
+        <v>4.230096785624291</v>
       </c>
       <c r="K128" t="n">
-        <v>20.03765106201172</v>
+        <v>5.372701168060303</v>
       </c>
     </row>
     <row r="129">
@@ -3757,22 +3757,22 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>10.88264097135589</v>
+        <v>7.813568278133613</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0276737020875957</v>
+        <v>0.006703875113285011</v>
       </c>
       <c r="F129" t="n">
-        <v>58.62495671383859</v>
+        <v>16.79087694185937</v>
       </c>
       <c r="G129" t="n">
-        <v>33.58833329693636</v>
+        <v>29.54600946183369</v>
       </c>
       <c r="K129" t="n">
-        <v>10.3685998916626</v>
+        <v>9.480063438415527</v>
       </c>
     </row>
     <row r="130">
@@ -3783,48 +3783,48 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>14.0551117943151</v>
+        <v>7.883685857739033</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02554202796779977</v>
+        <v>0.005022668387963728</v>
       </c>
       <c r="F130" t="n">
-        <v>41.20512553095818</v>
+        <v>16.73776536282312</v>
       </c>
       <c r="G130" t="n">
-        <v>58.30875481467535</v>
+        <v>24.15092032389473</v>
       </c>
       <c r="K130" t="n">
-        <v>20.30519104003906</v>
+        <v>5.731554985046387</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>10.7358870764296</v>
+        <v>11.28275872783663</v>
       </c>
       <c r="D131" t="n">
         <v>0.7</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0270659690366726</v>
+        <v>0.02867280321641637</v>
       </c>
       <c r="F131" t="n">
-        <v>55.54122939876756</v>
+        <v>62.1482084535448</v>
       </c>
       <c r="G131" t="n">
-        <v>33.55823007489816</v>
+        <v>34.43943056505427</v>
       </c>
       <c r="K131" t="n">
-        <v>-9.813936233520508</v>
+        <v>-19.60633659362793</v>
       </c>
     </row>
     <row r="132">
@@ -3835,22 +3835,22 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>7.135485542113543</v>
+        <v>7.358518028914311</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E132" t="n">
-        <v>0.006115620295830584</v>
+        <v>0.005396375090229015</v>
       </c>
       <c r="F132" t="n">
-        <v>20.81315758766868</v>
+        <v>32.17584941624953</v>
       </c>
       <c r="G132" t="n">
-        <v>21.28682761649404</v>
+        <v>4.483980691045745</v>
       </c>
       <c r="K132" t="n">
-        <v>5.248321056365967</v>
+        <v>5.370407581329346</v>
       </c>
     </row>
     <row r="133">
@@ -3858,25 +3858,25 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>15.61645008786411</v>
+        <v>15.13249734532979</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02899391790438987</v>
+        <v>0.03187394936063537</v>
       </c>
       <c r="F133" t="n">
-        <v>47.13007187108647</v>
+        <v>45.32785482903992</v>
       </c>
       <c r="G133" t="n">
-        <v>65.46418514225957</v>
+        <v>65.48782071754883</v>
       </c>
       <c r="K133" t="n">
-        <v>-4.990281581878662</v>
+        <v>13.9071216583252</v>
       </c>
     </row>
     <row r="134">
@@ -3887,48 +3887,48 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>16.08193703450875</v>
+        <v>8.082762672634614</v>
       </c>
       <c r="D134" t="n">
         <v>0.8</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02996664528245819</v>
+        <v>0.01062209630484936</v>
       </c>
       <c r="F134" t="n">
-        <v>48.87802938429094</v>
+        <v>25.25817660843119</v>
       </c>
       <c r="G134" t="n">
-        <v>67.58363304962673</v>
+        <v>29.20637056208853</v>
       </c>
       <c r="K134" t="n">
-        <v>20.32999038696289</v>
+        <v>20.64741516113281</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>7.768549804815997</v>
+        <v>11.29864673483589</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E135" t="n">
-        <v>0.005216139871148508</v>
+        <v>0.02842051448729709</v>
       </c>
       <c r="F135" t="n">
-        <v>16.94236854524189</v>
+        <v>56.24514938662983</v>
       </c>
       <c r="G135" t="n">
-        <v>25.56170905538381</v>
+        <v>35.53916342580771</v>
       </c>
       <c r="K135" t="n">
-        <v>9.933432579040527</v>
+        <v>-19.66462516784668</v>
       </c>
     </row>
     <row r="136">
@@ -3939,22 +3939,22 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>10.04187291367021</v>
+        <v>7.8060655479498</v>
       </c>
       <c r="D136" t="n">
         <v>0.5</v>
       </c>
       <c r="E136" t="n">
-        <v>0.004202965291150866</v>
+        <v>0.004286170421410695</v>
       </c>
       <c r="F136" t="n">
-        <v>17.28835763272222</v>
+        <v>17.4658606024044</v>
       </c>
       <c r="G136" t="n">
-        <v>22.09297817206474</v>
+        <v>22.86862609642099</v>
       </c>
       <c r="K136" t="n">
-        <v>2.407309055328369</v>
+        <v>7.531494617462158</v>
       </c>
     </row>
     <row r="137">
@@ -3965,22 +3965,22 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>6.979073182528492</v>
+        <v>16.37455610867882</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E137" t="n">
-        <v>0.005469520129299557</v>
+        <v>0.03056404747798026</v>
       </c>
       <c r="F137" t="n">
-        <v>21.65621827603677</v>
+        <v>49.96525304296003</v>
       </c>
       <c r="G137" t="n">
-        <v>21.04788373839585</v>
+        <v>68.80357430772646</v>
       </c>
       <c r="K137" t="n">
-        <v>9.829872131347656</v>
+        <v>20.35576438903809</v>
       </c>
     </row>
     <row r="138">
@@ -3991,22 +3991,22 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>14.27446586428639</v>
+        <v>10.4913588806501</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E138" t="n">
-        <v>0.02603168934345469</v>
+        <v>0.003343883160663886</v>
       </c>
       <c r="F138" t="n">
-        <v>41.95330534286991</v>
+        <v>9.926199780310618</v>
       </c>
       <c r="G138" t="n">
-        <v>59.76354921790654</v>
+        <v>19.22128132803238</v>
       </c>
       <c r="K138" t="n">
-        <v>20.31286239624023</v>
+        <v>5.531942844390869</v>
       </c>
     </row>
     <row r="139">
@@ -4017,22 +4017,22 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>7.778374124629406</v>
+        <v>10.97241984313909</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E139" t="n">
-        <v>0.005186587022359046</v>
+        <v>0.02793907351462742</v>
       </c>
       <c r="F139" t="n">
-        <v>16.88908041405846</v>
+        <v>61.84316630839199</v>
       </c>
       <c r="G139" t="n">
-        <v>25.5675643794674</v>
+        <v>33.39201364492427</v>
       </c>
       <c r="K139" t="n">
-        <v>9.944952964782715</v>
+        <v>10.40059089660645</v>
       </c>
     </row>
     <row r="140">
@@ -4040,25 +4040,25 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>10.14707038449903</v>
+        <v>7.345820752446824</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E140" t="n">
-        <v>0.02586268290196644</v>
+        <v>0.004968874387429567</v>
       </c>
       <c r="F140" t="n">
-        <v>57.40289479514578</v>
+        <v>32.06286906255536</v>
       </c>
       <c r="G140" t="n">
-        <v>31.07458230460241</v>
+        <v>3.434368203094647</v>
       </c>
       <c r="K140" t="n">
-        <v>-10.37259674072266</v>
+        <v>4.629329204559326</v>
       </c>
     </row>
     <row r="141">
@@ -4069,22 +4069,22 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>7.324886401468214</v>
+        <v>14.9768006105458</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E141" t="n">
-        <v>0.004981239152966868</v>
+        <v>0.02761289746994185</v>
       </c>
       <c r="F141" t="n">
-        <v>32.21623139378095</v>
+        <v>44.68273340992197</v>
       </c>
       <c r="G141" t="n">
-        <v>3.43015821606766</v>
+        <v>62.90533310893971</v>
       </c>
       <c r="K141" t="n">
-        <v>4.628722190856934</v>
+        <v>20.31260871887207</v>
       </c>
     </row>
     <row r="142">
@@ -4092,25 +4092,25 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>10.7457728522995</v>
+        <v>15.7925095612424</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E142" t="n">
-        <v>0.02720220444849602</v>
+        <v>0.02936698462445537</v>
       </c>
       <c r="F142" t="n">
-        <v>56.58729803193702</v>
+        <v>47.79809314170106</v>
       </c>
       <c r="G142" t="n">
-        <v>33.4216951987765</v>
+        <v>66.55505994029623</v>
       </c>
       <c r="K142" t="n">
-        <v>-10.34667301177979</v>
+        <v>20.34334754943848</v>
       </c>
     </row>
     <row r="143">
@@ -4118,25 +4118,25 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C143" t="n">
-        <v>7.685340617597299</v>
+        <v>15.62800500744125</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E143" t="n">
-        <v>0.005294179002475446</v>
+        <v>0.0290178816118124</v>
       </c>
       <c r="F143" t="n">
-        <v>17.44605989782617</v>
+        <v>47.19807996422902</v>
       </c>
       <c r="G143" t="n">
-        <v>25.14334146055694</v>
+        <v>66.47831397425088</v>
       </c>
       <c r="K143" t="n">
-        <v>9.90572452545166</v>
+        <v>-8.693394660949707</v>
       </c>
     </row>
     <row r="144">
@@ -4147,48 +4147,48 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>13.67460460352294</v>
+        <v>7.773893033953952</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E144" t="n">
-        <v>0.02461524185036543</v>
+        <v>0.004825254046382529</v>
       </c>
       <c r="F144" t="n">
-        <v>39.53688374464696</v>
+        <v>17.50202214664672</v>
       </c>
       <c r="G144" t="n">
-        <v>57.21606114087776</v>
+        <v>23.1698590120513</v>
       </c>
       <c r="K144" t="n">
-        <v>20.32174301147461</v>
+        <v>5.604349136352539</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>13.29234744281942</v>
+        <v>11.12614775523976</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E145" t="n">
-        <v>0.02371755615220876</v>
+        <v>0.02799611579298931</v>
       </c>
       <c r="F145" t="n">
-        <v>38.15936551763215</v>
+        <v>55.92184848560964</v>
       </c>
       <c r="G145" t="n">
-        <v>55.02789806861387</v>
+        <v>34.95354661725351</v>
       </c>
       <c r="K145" t="n">
-        <v>20.31812286376953</v>
+        <v>-19.66184616088867</v>
       </c>
     </row>
     <row r="146">
@@ -4196,51 +4196,51 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>16.10799178827186</v>
+        <v>11.5963529928327</v>
       </c>
       <c r="D146" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E146" t="n">
-        <v>0.03002271597986471</v>
+        <v>0.02940042029278238</v>
       </c>
       <c r="F146" t="n">
-        <v>48.99433046580717</v>
+        <v>60.52381601559917</v>
       </c>
       <c r="G146" t="n">
-        <v>68.006534199432</v>
+        <v>35.84235953305011</v>
       </c>
       <c r="K146" t="n">
-        <v>-9.167339324951172</v>
+        <v>-9.896628379821777</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>15.97987628392764</v>
+        <v>10.53485005110029</v>
       </c>
       <c r="D147" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02975476334397341</v>
+        <v>0.0005646007880269574</v>
       </c>
       <c r="F147" t="n">
-        <v>48.49274656543703</v>
+        <v>1.499009736811725</v>
       </c>
       <c r="G147" t="n">
-        <v>67.03637503145585</v>
+        <v>21.08877647875802</v>
       </c>
       <c r="K147" t="n">
-        <v>20.31381607055664</v>
+        <v>-20.96712684631348</v>
       </c>
     </row>
     <row r="148">
@@ -4248,25 +4248,25 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>12.78382214939055</v>
+        <v>7.589223785435628</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E148" t="n">
-        <v>0.02040043580073345</v>
+        <v>0.007801801258469044</v>
       </c>
       <c r="F148" t="n">
-        <v>38.10834515563941</v>
+        <v>18.77578467752959</v>
       </c>
       <c r="G148" t="n">
-        <v>50.12528954959657</v>
+        <v>29.32908789260474</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.728691577911377</v>
+        <v>-9.741427421569824</v>
       </c>
     </row>
     <row r="149">
@@ -4274,25 +4274,25 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>10.50604030950105</v>
+        <v>13.53683575781098</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E149" t="n">
-        <v>0.02683054730904713</v>
+        <v>0.02424980353856811</v>
       </c>
       <c r="F149" t="n">
-        <v>60.56405061163351</v>
+        <v>38.82083476407692</v>
       </c>
       <c r="G149" t="n">
-        <v>31.92408685301106</v>
+        <v>57.22449860795068</v>
       </c>
       <c r="K149" t="n">
-        <v>-10.39200973510742</v>
+        <v>20.03144264221191</v>
       </c>
     </row>
     <row r="150">
@@ -4303,22 +4303,22 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>8.026654002425202</v>
+        <v>14.76652753286027</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E150" t="n">
-        <v>0.008610941819538854</v>
+        <v>0.02714090492007906</v>
       </c>
       <c r="F150" t="n">
-        <v>17.60894197220669</v>
+        <v>43.8299534570037</v>
       </c>
       <c r="G150" t="n">
-        <v>31.81748028890404</v>
+        <v>62.47091554060797</v>
       </c>
       <c r="K150" t="n">
-        <v>10.51127052307129</v>
+        <v>20.01712989807129</v>
       </c>
     </row>
     <row r="151">
@@ -4329,22 +4329,22 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>14.61820319774624</v>
+        <v>14.12753740152519</v>
       </c>
       <c r="D151" t="n">
         <v>0.8</v>
       </c>
       <c r="E151" t="n">
-        <v>0.02678821239506762</v>
+        <v>0.02571054496296409</v>
       </c>
       <c r="F151" t="n">
-        <v>43.21095477273084</v>
+        <v>41.49259352212026</v>
       </c>
       <c r="G151" t="n">
-        <v>62.56886141947265</v>
+        <v>58.60402472830432</v>
       </c>
       <c r="K151" t="n">
-        <v>19.99455070495605</v>
+        <v>20.3038501739502</v>
       </c>
     </row>
     <row r="152">
@@ -4355,22 +4355,22 @@
         <v>9</v>
       </c>
       <c r="C152" t="n">
-        <v>11.68669857088631</v>
+        <v>12.58204796439137</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E152" t="n">
-        <v>0.02948761528047447</v>
+        <v>0.01986969244305329</v>
       </c>
       <c r="F152" t="n">
-        <v>58.31302260433776</v>
+        <v>36.94766307464491</v>
       </c>
       <c r="G152" t="n">
-        <v>36.586460030903</v>
+        <v>49.69394881119861</v>
       </c>
       <c r="K152" t="n">
-        <v>-9.847168922424316</v>
+        <v>-7.135768413543701</v>
       </c>
     </row>
     <row r="153">
@@ -4381,22 +4381,22 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>7.774181259528569</v>
+        <v>7.079832284707645</v>
       </c>
       <c r="D153" t="n">
         <v>0.5</v>
       </c>
       <c r="E153" t="n">
-        <v>0.005641350506462346</v>
+        <v>0.006098705514555942</v>
       </c>
       <c r="F153" t="n">
-        <v>17.12195730049053</v>
+        <v>21.14318912785001</v>
       </c>
       <c r="G153" t="n">
-        <v>24.47545772515275</v>
+        <v>20.93134590830569</v>
       </c>
       <c r="K153" t="n">
-        <v>6.22346830368042</v>
+        <v>5.245927810668945</v>
       </c>
     </row>
     <row r="154">
@@ -4407,22 +4407,22 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>14.39544486102067</v>
+        <v>7.819365007062888</v>
       </c>
       <c r="D154" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>0.02631452775382265</v>
+        <v>0.005320213578557897</v>
       </c>
       <c r="F154" t="n">
-        <v>42.46367319121632</v>
+        <v>16.58465262854559</v>
       </c>
       <c r="G154" t="n">
-        <v>60.09436310924218</v>
+        <v>26.16972867018307</v>
       </c>
       <c r="K154" t="n">
-        <v>20.30695724487305</v>
+        <v>9.888849258422852</v>
       </c>
     </row>
     <row r="155">
@@ -4430,25 +4430,25 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>14.93535273377439</v>
+        <v>10.00826481157318</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E155" t="n">
-        <v>0.02752256732304417</v>
+        <v>0.02502578760657688</v>
       </c>
       <c r="F155" t="n">
-        <v>44.53504199213422</v>
+        <v>52.96663536613947</v>
       </c>
       <c r="G155" t="n">
-        <v>62.58155119545622</v>
+        <v>31.20958484916854</v>
       </c>
       <c r="K155" t="n">
-        <v>20.30691719055176</v>
+        <v>-9.777575492858887</v>
       </c>
     </row>
     <row r="156">
@@ -4459,22 +4459,22 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>13.7057048202017</v>
+        <v>16.32249546222115</v>
       </c>
       <c r="D156" t="n">
         <v>0.8</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0246519789930253</v>
+        <v>0.03043251369627916</v>
       </c>
       <c r="F156" t="n">
-        <v>39.48052728076382</v>
+        <v>49.75423753948948</v>
       </c>
       <c r="G156" t="n">
-        <v>58.21616783470665</v>
+        <v>66.97886193039015</v>
       </c>
       <c r="K156" t="n">
-        <v>20.023193359375</v>
+        <v>20.02981567382812</v>
       </c>
     </row>
     <row r="157">
@@ -4485,22 +4485,22 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>7.764229592222446</v>
+        <v>13.11459521837591</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E157" t="n">
-        <v>0.005320845320968762</v>
+        <v>0.02477906850783588</v>
       </c>
       <c r="F157" t="n">
-        <v>16.9391426321664</v>
+        <v>50.13353822144899</v>
       </c>
       <c r="G157" t="n">
-        <v>25.76454517022407</v>
+        <v>44.00857702054637</v>
       </c>
       <c r="K157" t="n">
-        <v>9.891310691833496</v>
+        <v>50.15430450439453</v>
       </c>
     </row>
     <row r="158">
@@ -4508,25 +4508,25 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>16.37535299008938</v>
+        <v>14.94769362964375</v>
       </c>
       <c r="D158" t="n">
         <v>0.8</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03056462879225736</v>
+        <v>0.02754441075753816</v>
       </c>
       <c r="F158" t="n">
-        <v>49.96235819552884</v>
+        <v>44.54081915002412</v>
       </c>
       <c r="G158" t="n">
-        <v>68.72595128875651</v>
+        <v>63.33060288092162</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.943915843963623</v>
+        <v>20.0131721496582</v>
       </c>
     </row>
     <row r="159">
@@ -4537,22 +4537,22 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>7.817352943291763</v>
+        <v>7.83278054128112</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E159" t="n">
-        <v>0.005449677275202607</v>
+        <v>0.005676085409906518</v>
       </c>
       <c r="F159" t="n">
-        <v>16.56441156008488</v>
+        <v>16.73567429147091</v>
       </c>
       <c r="G159" t="n">
-        <v>26.46057738420515</v>
+        <v>24.94778002527457</v>
       </c>
       <c r="K159" t="n">
-        <v>9.839152336120605</v>
+        <v>5.119051456451416</v>
       </c>
     </row>
     <row r="160">
@@ -4563,48 +4563,48 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>10.34068405699783</v>
+        <v>6.88022071601309</v>
       </c>
       <c r="D160" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E160" t="n">
-        <v>0.02607095100524133</v>
+        <v>0.005697386860081832</v>
       </c>
       <c r="F160" t="n">
-        <v>54.85408804794359</v>
+        <v>22.21174893805988</v>
       </c>
       <c r="G160" t="n">
-        <v>32.18317556354154</v>
+        <v>20.92603930506678</v>
       </c>
       <c r="K160" t="n">
-        <v>10.19137954711914</v>
+        <v>9.74225902557373</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>11.00482181874972</v>
+        <v>7.02114533588668</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E161" t="n">
-        <v>0.003883522681657078</v>
+        <v>0.007031199188852894</v>
       </c>
       <c r="F161" t="n">
-        <v>2.057527335418222</v>
+        <v>21.74918125058978</v>
       </c>
       <c r="G161" t="n">
-        <v>22.39751720131934</v>
+        <v>24.47657901459565</v>
       </c>
       <c r="K161" t="n">
-        <v>-18.7021484375</v>
+        <v>9.606453895568848</v>
       </c>
     </row>
     <row r="162">
@@ -4612,25 +4612,25 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>13.30471059383699</v>
+        <v>7.956583032788229</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E162" t="n">
-        <v>0.02214408946663874</v>
+        <v>0.01050722601359026</v>
       </c>
       <c r="F162" t="n">
-        <v>43.29161214223354</v>
+        <v>25.64851412957061</v>
       </c>
       <c r="G162" t="n">
-        <v>49.46670330677071</v>
+        <v>28.52550222978284</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.775515556335449</v>
+        <v>20.66387557983398</v>
       </c>
     </row>
     <row r="163">
@@ -4641,22 +4641,22 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>14.75911583750714</v>
+        <v>7.372198477812405</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E163" t="n">
-        <v>0.02713245433158091</v>
+        <v>0.005303400676076441</v>
       </c>
       <c r="F163" t="n">
-        <v>43.86218880947613</v>
+        <v>32.03007036614618</v>
       </c>
       <c r="G163" t="n">
-        <v>61.75707583328258</v>
+        <v>4.283899208163628</v>
       </c>
       <c r="K163" t="n">
-        <v>20.30604362487793</v>
+        <v>5.372322559356689</v>
       </c>
     </row>
     <row r="164">
@@ -4667,48 +4667,48 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>6.91848364857958</v>
+        <v>7.034674985793258</v>
       </c>
       <c r="D164" t="n">
         <v>0.6</v>
       </c>
       <c r="E164" t="n">
-        <v>0.005274911817655731</v>
+        <v>0.005626069644816572</v>
       </c>
       <c r="F164" t="n">
-        <v>22.04204530039192</v>
+        <v>21.31310828289028</v>
       </c>
       <c r="G164" t="n">
-        <v>20.33435855426074</v>
+        <v>21.68075167280704</v>
       </c>
       <c r="K164" t="n">
-        <v>9.901012420654297</v>
+        <v>9.775477409362793</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="n">
-        <v>10.54610199309498</v>
+        <v>11.00093836292385</v>
       </c>
       <c r="D165" t="n">
         <v>0.7</v>
       </c>
       <c r="E165" t="n">
-        <v>0.02674246008572154</v>
+        <v>0.02801594536630417</v>
       </c>
       <c r="F165" t="n">
-        <v>56.62120052809703</v>
+        <v>61.22212650802328</v>
       </c>
       <c r="G165" t="n">
-        <v>32.6728791604261</v>
+        <v>33.59133301610996</v>
       </c>
       <c r="K165" t="n">
-        <v>-10.35323905944824</v>
+        <v>-20.38269996643066</v>
       </c>
     </row>
     <row r="166">
@@ -4716,51 +4716,51 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>14.07513219685226</v>
+        <v>16.20634171202736</v>
       </c>
       <c r="D166" t="n">
         <v>0.8</v>
       </c>
       <c r="E166" t="n">
-        <v>0.02558259253247827</v>
+        <v>0.03021131206649592</v>
       </c>
       <c r="F166" t="n">
-        <v>41.24736224308349</v>
+        <v>49.31764932503748</v>
       </c>
       <c r="G166" t="n">
-        <v>58.53326496589039</v>
+        <v>67.3833332078508</v>
       </c>
       <c r="K166" t="n">
-        <v>20.30719757080078</v>
+        <v>-5.000211715698242</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>8.088991495235341</v>
+        <v>11.53495097708011</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E167" t="n">
-        <v>0.004639443827393959</v>
+        <v>0.02927006114953923</v>
       </c>
       <c r="F167" t="n">
-        <v>15.84883482654424</v>
+        <v>61.9288337507565</v>
       </c>
       <c r="G167" t="n">
-        <v>24.30113860923948</v>
+        <v>35.36896822902975</v>
       </c>
       <c r="K167" t="n">
-        <v>4.124447822570801</v>
+        <v>-20.3727912902832</v>
       </c>
     </row>
     <row r="168">
@@ -4768,51 +4768,51 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>11.03119938944935</v>
+        <v>16.6043937056671</v>
       </c>
       <c r="D168" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E168" t="n">
-        <v>0.02803163344946446</v>
+        <v>0.03099473821299158</v>
       </c>
       <c r="F168" t="n">
-        <v>63.13125726108124</v>
+        <v>51.20984891938811</v>
       </c>
       <c r="G168" t="n">
-        <v>33.40104872898957</v>
+        <v>65.05718842499743</v>
       </c>
       <c r="K168" t="n">
-        <v>-10.40472507476807</v>
+        <v>23.43379974365234</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C169" t="n">
-        <v>7.695569399304373</v>
+        <v>11.68609888933151</v>
       </c>
       <c r="D169" t="n">
         <v>0.7</v>
       </c>
       <c r="E169" t="n">
-        <v>0.01699740535564925</v>
+        <v>0.02948592780563734</v>
       </c>
       <c r="F169" t="n">
-        <v>44.54672996039604</v>
+        <v>58.30861501562705</v>
       </c>
       <c r="G169" t="n">
-        <v>23.31347329400741</v>
+        <v>36.58510544631807</v>
       </c>
       <c r="K169" t="n">
-        <v>-19.68896293640137</v>
+        <v>-9.847095489501953</v>
       </c>
     </row>
     <row r="170">
@@ -4823,22 +4823,22 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>14.29467505343726</v>
+        <v>14.28303848770686</v>
       </c>
       <c r="D170" t="n">
         <v>0.8</v>
       </c>
       <c r="E170" t="n">
-        <v>0.02607000665064881</v>
+        <v>0.02602933591620421</v>
       </c>
       <c r="F170" t="n">
-        <v>41.98049414898502</v>
+        <v>41.868930591094</v>
       </c>
       <c r="G170" t="n">
-        <v>60.17901150012683</v>
+        <v>60.68708108160611</v>
       </c>
       <c r="K170" t="n">
-        <v>20.02798271179199</v>
+        <v>20.01654624938965</v>
       </c>
     </row>
     <row r="171">
@@ -4849,22 +4849,22 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>11.61922198120867</v>
+        <v>7.597890113062238</v>
       </c>
       <c r="D171" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E171" t="n">
-        <v>0.02934839274252027</v>
+        <v>0.005453284587966833</v>
       </c>
       <c r="F171" t="n">
-        <v>58.46654508724041</v>
+        <v>17.95463064662162</v>
       </c>
       <c r="G171" t="n">
-        <v>36.31026451613394</v>
+        <v>24.88550820894139</v>
       </c>
       <c r="K171" t="n">
-        <v>10.34408760070801</v>
+        <v>9.845785140991211</v>
       </c>
     </row>
     <row r="172">
@@ -4875,22 +4875,22 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>14.32482207304093</v>
+        <v>7.571750994749001</v>
       </c>
       <c r="D172" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E172" t="n">
-        <v>0.02615154908809578</v>
+        <v>0.006902453796971133</v>
       </c>
       <c r="F172" t="n">
-        <v>42.17927597685512</v>
+        <v>18.56885133959354</v>
       </c>
       <c r="G172" t="n">
-        <v>59.83151931218292</v>
+        <v>28.46492976389025</v>
       </c>
       <c r="K172" t="n">
-        <v>20.30841636657715</v>
+        <v>10.31604671478271</v>
       </c>
     </row>
     <row r="173">
@@ -4901,22 +4901,22 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>7.911468605831529</v>
+        <v>10.31975231074096</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E173" t="n">
-        <v>0.005675141948412958</v>
+        <v>0.02632182574967833</v>
       </c>
       <c r="F173" t="n">
-        <v>16.22996193550444</v>
+        <v>58.18285874536422</v>
       </c>
       <c r="G173" t="n">
-        <v>25.50978805971162</v>
+        <v>31.59643190484171</v>
       </c>
       <c r="K173" t="n">
-        <v>5.121598720550537</v>
+        <v>10.38283348083496</v>
       </c>
     </row>
     <row r="174">
@@ -4927,22 +4927,22 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>7.175131022550217</v>
+        <v>13.51892272152457</v>
       </c>
       <c r="D174" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E174" t="n">
-        <v>0.005812717765124853</v>
+        <v>0.02419712010267463</v>
       </c>
       <c r="F174" t="n">
-        <v>20.66748044195893</v>
+        <v>38.71006678498738</v>
       </c>
       <c r="G174" t="n">
-        <v>21.00475377250368</v>
+        <v>57.31741424557387</v>
       </c>
       <c r="K174" t="n">
-        <v>5.16348123550415</v>
+        <v>20.02789115905762</v>
       </c>
     </row>
     <row r="175">
@@ -4953,22 +4953,22 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>15.59843882720595</v>
+        <v>14.13630336317504</v>
       </c>
       <c r="D175" t="n">
         <v>0.8</v>
       </c>
       <c r="E175" t="n">
-        <v>0.02895794416165398</v>
+        <v>0.02571406377382122</v>
       </c>
       <c r="F175" t="n">
-        <v>47.06357161937818</v>
+        <v>41.42166930286264</v>
       </c>
       <c r="G175" t="n">
-        <v>65.85233401467725</v>
+        <v>59.08811371642481</v>
       </c>
       <c r="K175" t="n">
-        <v>20.35319900512695</v>
+        <v>20.31241989135742</v>
       </c>
     </row>
     <row r="176">
@@ -4979,22 +4979,22 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>14.90992868884093</v>
+        <v>7.474161529593468</v>
       </c>
       <c r="D176" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E176" t="n">
-        <v>0.02743755551751288</v>
+        <v>0.004878824118990412</v>
       </c>
       <c r="F176" t="n">
-        <v>44.39226310899943</v>
+        <v>19.26293343973229</v>
       </c>
       <c r="G176" t="n">
-        <v>63.96423815993413</v>
+        <v>21.40899013129651</v>
       </c>
       <c r="K176" t="n">
-        <v>19.97775650024414</v>
+        <v>5.574580192565918</v>
       </c>
     </row>
     <row r="177">
@@ -5005,22 +5005,22 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>10.94456304034711</v>
+        <v>14.98043934426972</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E177" t="n">
-        <v>0.003517258519135773</v>
+        <v>0.0275863801895937</v>
       </c>
       <c r="F177" t="n">
-        <v>5.078396417314726</v>
+        <v>44.67953397332235</v>
       </c>
       <c r="G177" t="n">
-        <v>21.74193193235639</v>
+        <v>64.35395934110909</v>
       </c>
       <c r="K177" t="n">
-        <v>4.52070951461792</v>
+        <v>19.96637535095215</v>
       </c>
     </row>
     <row r="178">
@@ -5031,22 +5031,22 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>10.72357171237725</v>
+        <v>6.878867376784967</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E178" t="n">
-        <v>0.003189169471175609</v>
+        <v>0.005566316562606747</v>
       </c>
       <c r="F178" t="n">
-        <v>8.442847625977642</v>
+        <v>22.22904063925689</v>
       </c>
       <c r="G178" t="n">
-        <v>20.66414141601562</v>
+        <v>20.66079653705451</v>
       </c>
       <c r="K178" t="n">
-        <v>5.495683670043945</v>
+        <v>9.788145065307617</v>
       </c>
     </row>
     <row r="179">
@@ -5057,22 +5057,22 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>8.127745709976187</v>
+        <v>7.180884452927347</v>
       </c>
       <c r="D179" t="n">
         <v>0.5</v>
       </c>
       <c r="E179" t="n">
-        <v>0.005341236956739917</v>
+        <v>0.005752922286072428</v>
       </c>
       <c r="F179" t="n">
-        <v>14.97156880023159</v>
+        <v>20.65273282534172</v>
       </c>
       <c r="G179" t="n">
-        <v>26.46877506467813</v>
+        <v>20.9412173247463</v>
       </c>
       <c r="K179" t="n">
-        <v>5.030487537384033</v>
+        <v>5.145772457122803</v>
       </c>
     </row>
     <row r="180">
@@ -5080,25 +5080,25 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>10.09613213496995</v>
+        <v>14.50243040835134</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02533989370510315</v>
+        <v>0.02451758360731077</v>
       </c>
       <c r="F180" t="n">
-        <v>53.67324776768633</v>
+        <v>48.156081484471</v>
       </c>
       <c r="G180" t="n">
-        <v>31.43831620305213</v>
+        <v>52.94341736981289</v>
       </c>
       <c r="K180" t="n">
-        <v>-9.78959846496582</v>
+        <v>50.05319213867188</v>
       </c>
     </row>
     <row r="181">
@@ -5109,48 +5109,48 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>7.426249361408509</v>
+        <v>7.494876080688235</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E181" t="n">
-        <v>0.004422970639903939</v>
+        <v>0.005140468457091865</v>
       </c>
       <c r="F181" t="n">
-        <v>19.66160865124881</v>
+        <v>31.08527665997763</v>
       </c>
       <c r="G181" t="n">
-        <v>20.71076475368341</v>
+        <v>4.137022561785972</v>
       </c>
       <c r="K181" t="n">
-        <v>7.535509586334229</v>
+        <v>5.373830795288086</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C182" t="n">
-        <v>7.382780606755703</v>
+        <v>11.65435522653353</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E182" t="n">
-        <v>0.005372121771338554</v>
+        <v>0.02954333311256527</v>
       </c>
       <c r="F182" t="n">
-        <v>31.9930419591157</v>
+        <v>60.96277654285876</v>
       </c>
       <c r="G182" t="n">
-        <v>4.466627692935631</v>
+        <v>35.96949652990992</v>
       </c>
       <c r="K182" t="n">
-        <v>5.370292186737061</v>
+        <v>-20.35852432250977</v>
       </c>
     </row>
     <row r="183">
@@ -5161,22 +5161,22 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>8.2973975880049</v>
+        <v>7.724713989072496</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E183" t="n">
-        <v>0.004574340396854504</v>
+        <v>0.005272745933884777</v>
       </c>
       <c r="F183" t="n">
-        <v>15.6934604553678</v>
+        <v>17.20382879657245</v>
       </c>
       <c r="G183" t="n">
-        <v>24.00584827469592</v>
+        <v>25.37363736104129</v>
       </c>
       <c r="K183" t="n">
-        <v>4.367372035980225</v>
+        <v>9.912534713745117</v>
       </c>
     </row>
     <row r="184">
@@ -5187,22 +5187,22 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>7.592511189103489</v>
+        <v>13.46890865709039</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E184" t="n">
-        <v>0.005316457691464175</v>
+        <v>0.02413078148715789</v>
       </c>
       <c r="F184" t="n">
-        <v>18.38205725192036</v>
+        <v>38.7787595130306</v>
       </c>
       <c r="G184" t="n">
-        <v>22.73336006470081</v>
+        <v>56.05793534530733</v>
       </c>
       <c r="K184" t="n">
-        <v>5.828456401824951</v>
+        <v>20.3193416595459</v>
       </c>
     </row>
     <row r="185">
@@ -5213,22 +5213,22 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>7.046939735221231</v>
+        <v>15.13249830541623</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E185" t="n">
-        <v>0.005435978899461939</v>
+        <v>0.02794602662081973</v>
       </c>
       <c r="F185" t="n">
-        <v>21.26390222477388</v>
+        <v>45.26880536372845</v>
       </c>
       <c r="G185" t="n">
-        <v>21.37899865751302</v>
+        <v>64.52908743430747</v>
       </c>
       <c r="K185" t="n">
-        <v>9.846470832824707</v>
+        <v>19.99634742736816</v>
       </c>
     </row>
     <row r="186">
@@ -5239,22 +5239,22 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>7.793872157465274</v>
+        <v>11.0254344737476</v>
       </c>
       <c r="D186" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E186" t="n">
-        <v>0.006620435065185538</v>
+        <v>0.02780097901945746</v>
       </c>
       <c r="F186" t="n">
-        <v>16.86754731757708</v>
+        <v>56.20312264259788</v>
       </c>
       <c r="G186" t="n">
-        <v>29.16250786725451</v>
+        <v>34.5278879753966</v>
       </c>
       <c r="K186" t="n">
-        <v>9.672751426696777</v>
+        <v>10.34328937530518</v>
       </c>
     </row>
     <row r="187">
@@ -5265,22 +5265,22 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>7.336114106263736</v>
+        <v>7.54557678738854</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E187" t="n">
-        <v>0.004896233688655576</v>
+        <v>0.005562351914302971</v>
       </c>
       <c r="F187" t="n">
-        <v>32.10161170276075</v>
+        <v>18.25978374166695</v>
       </c>
       <c r="G187" t="n">
-        <v>3.243667369519672</v>
+        <v>24.76634693559178</v>
       </c>
       <c r="K187" t="n">
-        <v>4.627205848693848</v>
+        <v>9.806000709533691</v>
       </c>
     </row>
     <row r="188">
@@ -5288,25 +5288,25 @@
         <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>15.95089575612169</v>
+        <v>6.912126410019498</v>
       </c>
       <c r="D188" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E188" t="n">
-        <v>0.02966877966036749</v>
+        <v>0.005394064343442032</v>
       </c>
       <c r="F188" t="n">
-        <v>48.48180134536886</v>
+        <v>22.05763342311553</v>
       </c>
       <c r="G188" t="n">
-        <v>68.24387080862203</v>
+        <v>20.51957807505138</v>
       </c>
       <c r="K188" t="n">
-        <v>-8.894148826599121</v>
+        <v>9.85459041595459</v>
       </c>
     </row>
     <row r="189">
@@ -5314,25 +5314,25 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>7.844075989190093</v>
+        <v>6.921600999022451</v>
       </c>
       <c r="D189" t="n">
         <v>0.6</v>
       </c>
       <c r="E189" t="n">
-        <v>0.008988147467684527</v>
+        <v>0.005406777784900292</v>
       </c>
       <c r="F189" t="n">
-        <v>17.08679172112046</v>
+        <v>22.00050550240977</v>
       </c>
       <c r="G189" t="n">
-        <v>31.2099224364604</v>
+        <v>20.59762595384924</v>
       </c>
       <c r="K189" t="n">
-        <v>-8.455828666687012</v>
+        <v>9.850418090820312</v>
       </c>
     </row>
     <row r="190">
@@ -5343,22 +5343,22 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>14.4857534062789</v>
+        <v>7.267679722348491</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E190" t="n">
-        <v>0.02649367414377466</v>
+        <v>0.005022931800360113</v>
       </c>
       <c r="F190" t="n">
-        <v>42.68078580279646</v>
+        <v>32.63723658770238</v>
       </c>
       <c r="G190" t="n">
-        <v>61.7377655872295</v>
+        <v>3.448124958861778</v>
       </c>
       <c r="K190" t="n">
-        <v>20.00784492492676</v>
+        <v>4.627816200256348</v>
       </c>
     </row>
     <row r="191">
@@ -5366,25 +5366,25 @@
         <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>13.90560216889424</v>
+        <v>7.725725392416716</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E191" t="n">
-        <v>0.02517930793195764</v>
+        <v>0.007869561451748577</v>
       </c>
       <c r="F191" t="n">
-        <v>40.53913845635724</v>
+        <v>17.93946670169031</v>
       </c>
       <c r="G191" t="n">
-        <v>57.94530618637388</v>
+        <v>30.41192620775812</v>
       </c>
       <c r="K191" t="n">
-        <v>20.31233024597168</v>
+        <v>-9.694903373718262</v>
       </c>
     </row>
     <row r="192">
@@ -5392,25 +5392,25 @@
         <v>0</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C192" t="n">
-        <v>7.773664710030127</v>
+        <v>7.962529898969613</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E192" t="n">
-        <v>0.005035264417751255</v>
+        <v>0.01786500785873974</v>
       </c>
       <c r="F192" t="n">
-        <v>17.41030084405251</v>
+        <v>46.39058990349601</v>
       </c>
       <c r="G192" t="n">
-        <v>23.45433686730148</v>
+        <v>24.11726632476637</v>
       </c>
       <c r="K192" t="n">
-        <v>5.704231262207031</v>
+        <v>-9.814766883850098</v>
       </c>
     </row>
     <row r="193">
@@ -5421,22 +5421,22 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>7.638445530996869</v>
+        <v>13.29901932477181</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E193" t="n">
-        <v>0.006898303439581361</v>
+        <v>0.02371563579609921</v>
       </c>
       <c r="F193" t="n">
-        <v>17.99990716487443</v>
+        <v>38.09454190116742</v>
       </c>
       <c r="G193" t="n">
-        <v>28.49564567650285</v>
+        <v>55.29311592528982</v>
       </c>
       <c r="K193" t="n">
-        <v>9.420570373535156</v>
+        <v>20.32189750671387</v>
       </c>
     </row>
     <row r="194">
@@ -5444,25 +5444,25 @@
         <v>0</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C194" t="n">
-        <v>7.468608768111284</v>
+        <v>16.07479507456898</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E194" t="n">
-        <v>0.00520258105135812</v>
+        <v>0.02993461112357774</v>
       </c>
       <c r="F194" t="n">
-        <v>31.3022972948462</v>
+        <v>48.85929520958173</v>
       </c>
       <c r="G194" t="n">
-        <v>4.22683998974302</v>
+        <v>66.18147984152334</v>
       </c>
       <c r="K194" t="n">
-        <v>5.372535705566406</v>
+        <v>-5.018182754516602</v>
       </c>
     </row>
     <row r="195">
@@ -5473,22 +5473,22 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>7.769694877848642</v>
+        <v>14.22377752699134</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E195" t="n">
-        <v>0.004957642781789533</v>
+        <v>0.02591888081879695</v>
       </c>
       <c r="F195" t="n">
-        <v>17.47043390916303</v>
+        <v>41.78005250953593</v>
       </c>
       <c r="G195" t="n">
-        <v>23.31764593390401</v>
+        <v>59.40507118396336</v>
       </c>
       <c r="K195" t="n">
-        <v>5.660970687866211</v>
+        <v>20.31001281738281</v>
       </c>
     </row>
     <row r="196">
@@ -5499,22 +5499,22 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>15.43062932088333</v>
+        <v>7.015283812768724</v>
       </c>
       <c r="D196" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E196" t="n">
-        <v>0.02859946910616191</v>
+        <v>0.00702130438234063</v>
       </c>
       <c r="F196" t="n">
-        <v>46.42120482898828</v>
+        <v>21.77724660793242</v>
       </c>
       <c r="G196" t="n">
-        <v>65.00654847064997</v>
+        <v>24.42032615100342</v>
       </c>
       <c r="K196" t="n">
-        <v>20.3271541595459</v>
+        <v>9.623750686645508</v>
       </c>
     </row>
     <row r="197">
@@ -5525,74 +5525,74 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>12.12135262934133</v>
+        <v>6.89592880345398</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E197" t="n">
-        <v>0.03055661970150919</v>
+        <v>0.005298713832454037</v>
       </c>
       <c r="F197" t="n">
-        <v>59.83032740145439</v>
+        <v>22.16839335507762</v>
       </c>
       <c r="G197" t="n">
-        <v>37.86938490527031</v>
+        <v>20.24997483244951</v>
       </c>
       <c r="K197" t="n">
-        <v>10.34129047393799</v>
+        <v>9.890125274658203</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>8.487338492766584</v>
+        <v>8.037298658859518</v>
       </c>
       <c r="D198" t="n">
         <v>0.4</v>
       </c>
       <c r="E198" t="n">
-        <v>0.007362859342551363</v>
+        <v>0.004663280893959365</v>
       </c>
       <c r="F198" t="n">
-        <v>11.64510992635767</v>
+        <v>16.57004903323348</v>
       </c>
       <c r="G198" t="n">
-        <v>31.91227824789888</v>
+        <v>23.35494797561052</v>
       </c>
       <c r="K198" t="n">
-        <v>-18.08352470397949</v>
+        <v>4.26417875289917</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>15.75228381334843</v>
+        <v>7.130573070232099</v>
       </c>
       <c r="D199" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E199" t="n">
-        <v>0.03354435225955248</v>
+        <v>0.005865237974770265</v>
       </c>
       <c r="F199" t="n">
-        <v>47.9269209689058</v>
+        <v>20.91149386188826</v>
       </c>
       <c r="G199" t="n">
-        <v>68.84453678599778</v>
+        <v>20.83150826731244</v>
       </c>
       <c r="K199" t="n">
-        <v>-19.89389038085938</v>
+        <v>5.180344581604004</v>
       </c>
     </row>
     <row r="200">
@@ -5603,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>6.933824670135194</v>
+        <v>13.5654881329392</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E200" t="n">
-        <v>0.005323357461508547</v>
+        <v>0.02434160708767045</v>
       </c>
       <c r="F200" t="n">
-        <v>21.94371724156975</v>
+        <v>39.04347583824111</v>
       </c>
       <c r="G200" t="n">
-        <v>20.51045276222117</v>
+        <v>56.9171548320253</v>
       </c>
       <c r="K200" t="n">
-        <v>9.883561134338379</v>
+        <v>20.03822898864746</v>
       </c>
     </row>
     <row r="201">
@@ -5626,25 +5626,25 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>10.49613478438526</v>
+        <v>14.29714139898006</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E201" t="n">
-        <v>0.02680651767920814</v>
+        <v>0.02606226625086163</v>
       </c>
       <c r="F201" t="n">
-        <v>60.40104063097816</v>
+        <v>41.92659635138948</v>
       </c>
       <c r="G201" t="n">
-        <v>31.91206659343832</v>
+        <v>60.74490329845117</v>
       </c>
       <c r="K201" t="n">
-        <v>-9.928702354431152</v>
+        <v>20.01643753051758</v>
       </c>
     </row>
     <row r="202">
@@ -5652,25 +5652,25 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C202" t="n">
-        <v>10.97095692141956</v>
+        <v>11.78751703072543</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E202" t="n">
-        <v>0.003831547009365177</v>
+        <v>0.02975229490847228</v>
       </c>
       <c r="F202" t="n">
-        <v>5.609487683259605</v>
+        <v>58.84486456036101</v>
       </c>
       <c r="G202" t="n">
-        <v>21.97727986256488</v>
+        <v>36.85279102130754</v>
       </c>
       <c r="K202" t="n">
-        <v>4.531804084777832</v>
+        <v>-9.855376243591309</v>
       </c>
     </row>
     <row r="203">
@@ -5681,22 +5681,22 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>10.20572887019424</v>
+        <v>7.821387090729594</v>
       </c>
       <c r="D203" t="n">
         <v>0.5</v>
       </c>
       <c r="E203" t="n">
-        <v>0.004172138541670708</v>
+        <v>0.00561978504559586</v>
       </c>
       <c r="F203" t="n">
-        <v>16.45333990143156</v>
+        <v>16.83402838242608</v>
       </c>
       <c r="G203" t="n">
-        <v>22.93863168852842</v>
+        <v>24.76011814620326</v>
       </c>
       <c r="K203" t="n">
-        <v>2.363396406173706</v>
+        <v>5.102044582366943</v>
       </c>
     </row>
     <row r="204">
@@ -5707,22 +5707,22 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>8.158991887638987</v>
+        <v>14.67860843124141</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E204" t="n">
-        <v>0.004645190585456354</v>
+        <v>0.02692407154005483</v>
       </c>
       <c r="F204" t="n">
-        <v>16.97245374673545</v>
+        <v>43.45590908679607</v>
       </c>
       <c r="G204" t="n">
-        <v>22.6425400331713</v>
+        <v>62.86102752143061</v>
       </c>
       <c r="K204" t="n">
-        <v>4.41220235824585</v>
+        <v>19.99150085449219</v>
       </c>
     </row>
     <row r="205">
@@ -5733,22 +5733,22 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>8.195196380061175</v>
+        <v>13.1313703241867</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E205" t="n">
-        <v>0.004623455501419339</v>
+        <v>0.02331931507364379</v>
       </c>
       <c r="F205" t="n">
-        <v>16.47602043161</v>
+        <v>37.50617667272793</v>
       </c>
       <c r="G205" t="n">
-        <v>23.18292403274388</v>
+        <v>54.32227944915262</v>
       </c>
       <c r="K205" t="n">
-        <v>4.399209022521973</v>
+        <v>20.32072830200195</v>
       </c>
     </row>
     <row r="206">
@@ -5759,22 +5759,22 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>12.51988468257988</v>
+        <v>10.36072127746346</v>
       </c>
       <c r="D206" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E206" t="n">
-        <v>0.02163466292706387</v>
+        <v>0.02639977053665343</v>
       </c>
       <c r="F206" t="n">
-        <v>34.45014668187531</v>
+        <v>57.82718051944713</v>
       </c>
       <c r="G206" t="n">
-        <v>52.71760658534039</v>
+        <v>31.80064759154982</v>
       </c>
       <c r="K206" t="n">
-        <v>20.04540252685547</v>
+        <v>10.37841701507568</v>
       </c>
     </row>
     <row r="207">
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>15.00303275462156</v>
+        <v>6.897047882078729</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E207" t="n">
-        <v>0.02766580613015898</v>
+        <v>0.007404541807394065</v>
       </c>
       <c r="F207" t="n">
-        <v>44.75639901339629</v>
+        <v>22.77947800644317</v>
       </c>
       <c r="G207" t="n">
-        <v>63.67244710396089</v>
+        <v>24.55633818703449</v>
       </c>
       <c r="K207" t="n">
-        <v>20.0094165802002</v>
+        <v>10.45508766174316</v>
       </c>
     </row>
     <row r="208">
@@ -5811,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>15.17861699364295</v>
+        <v>7.575945496598335</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E208" t="n">
-        <v>0.02804201149833772</v>
+        <v>0.004837820994337954</v>
       </c>
       <c r="F208" t="n">
-        <v>45.45658913762047</v>
+        <v>18.67936533486494</v>
       </c>
       <c r="G208" t="n">
-        <v>64.8863568561045</v>
+        <v>21.96919326334925</v>
       </c>
       <c r="K208" t="n">
-        <v>19.98685836791992</v>
+        <v>5.5766921043396</v>
       </c>
     </row>
     <row r="209">
@@ -5834,25 +5834,25 @@
         <v>0</v>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>11.61093007093317</v>
+        <v>8.213240263263543</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E209" t="n">
-        <v>0.01904101737412774</v>
+        <v>0.004591892510435008</v>
       </c>
       <c r="F209" t="n">
-        <v>30.20429027939115</v>
+        <v>15.66237335043894</v>
       </c>
       <c r="G209" t="n">
-        <v>48.83074672752369</v>
+        <v>24.20714412292284</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.599697113037109</v>
+        <v>4.277568340301514</v>
       </c>
     </row>
     <row r="210">
@@ -5860,25 +5860,25 @@
         <v>0</v>
       </c>
       <c r="B210" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="n">
-        <v>7.764941070738123</v>
+        <v>12.61716341752354</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E210" t="n">
-        <v>0.01731782966245058</v>
+        <v>0.01995255295417268</v>
       </c>
       <c r="F210" t="n">
-        <v>45.68131636194806</v>
+        <v>37.10650536433628</v>
       </c>
       <c r="G210" t="n">
-        <v>23.39813730016855</v>
+        <v>49.81373926291077</v>
       </c>
       <c r="K210" t="n">
-        <v>-9.80293083190918</v>
+        <v>-7.146175384521484</v>
       </c>
     </row>
     <row r="211">
@@ -5886,51 +5886,51 @@
         <v>0</v>
       </c>
       <c r="B211" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>16.36118673244583</v>
+        <v>8.017524776554611</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E211" t="n">
-        <v>0.03051736263069998</v>
+        <v>0.004670531200969817</v>
       </c>
       <c r="F211" t="n">
-        <v>50.02405858442083</v>
+        <v>16.5194864087077</v>
       </c>
       <c r="G211" t="n">
-        <v>69.75716935098673</v>
+        <v>23.48786968086272</v>
       </c>
       <c r="K211" t="n">
-        <v>-9.013132095336914</v>
+        <v>4.217025279998779</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B212" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>10.9506607478397</v>
+        <v>15.9058344559929</v>
       </c>
       <c r="D212" t="n">
         <v>0.7</v>
       </c>
       <c r="E212" t="n">
-        <v>0.02765843634661163</v>
+        <v>0.03382267406600763</v>
       </c>
       <c r="F212" t="n">
-        <v>56.45707999259005</v>
+        <v>48.41755302441113</v>
       </c>
       <c r="G212" t="n">
-        <v>34.20542707991656</v>
+        <v>68.83510769383726</v>
       </c>
       <c r="K212" t="n">
-        <v>-9.827442169189453</v>
+        <v>-15.81976509094238</v>
       </c>
     </row>
     <row r="213">
@@ -5938,25 +5938,25 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>10.75828291233993</v>
+        <v>7.167488241292203</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E213" t="n">
-        <v>0.02730177516933864</v>
+        <v>0.005423972228242952</v>
       </c>
       <c r="F213" t="n">
-        <v>57.39040243480807</v>
+        <v>20.84626938075831</v>
       </c>
       <c r="G213" t="n">
-        <v>33.33472650785147</v>
+        <v>20.34725218862098</v>
       </c>
       <c r="K213" t="n">
-        <v>-10.35299873352051</v>
+        <v>5.058774948120117</v>
       </c>
     </row>
     <row r="214">
@@ -5967,22 +5967,22 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>7.835743735973876</v>
+        <v>13.82365004749298</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E214" t="n">
-        <v>0.005263406792705164</v>
+        <v>0.02494989073566239</v>
       </c>
       <c r="F214" t="n">
-        <v>16.49541331736513</v>
+        <v>40.02165415476385</v>
       </c>
       <c r="G214" t="n">
-        <v>26.16037454053957</v>
+        <v>58.43098115792391</v>
       </c>
       <c r="K214" t="n">
-        <v>9.91065502166748</v>
+        <v>20.0284366607666</v>
       </c>
     </row>
     <row r="215">
@@ -5993,22 +5993,22 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>7.138025446108669</v>
+        <v>10.91633278333564</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E215" t="n">
-        <v>0.00604988957726782</v>
+        <v>0.003898178743119182</v>
       </c>
       <c r="F215" t="n">
-        <v>20.81512680137776</v>
+        <v>5.964095678035434</v>
       </c>
       <c r="G215" t="n">
-        <v>21.18819062007397</v>
+        <v>21.62199974616778</v>
       </c>
       <c r="K215" t="n">
-        <v>5.230662822723389</v>
+        <v>5.482730865478516</v>
       </c>
     </row>
     <row r="216">
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>7.225041720284332</v>
+        <v>13.99022793680702</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E216" t="n">
-        <v>0.005462855443248381</v>
+        <v>0.02536833218857464</v>
       </c>
       <c r="F216" t="n">
-        <v>20.49697838911892</v>
+        <v>40.81601685558901</v>
       </c>
       <c r="G216" t="n">
-        <v>20.74046897038004</v>
+        <v>58.56524701556345</v>
       </c>
       <c r="K216" t="n">
-        <v>5.063124656677246</v>
+        <v>20.31704711914062</v>
       </c>
     </row>
     <row r="217">
@@ -6045,22 +6045,22 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>7.560312799101063</v>
+        <v>6.856258536751584</v>
       </c>
       <c r="D217" t="n">
         <v>0.6</v>
       </c>
       <c r="E217" t="n">
-        <v>0.00691451450844742</v>
+        <v>0.00712769933325707</v>
       </c>
       <c r="F217" t="n">
-        <v>18.48516548450813</v>
+        <v>22.77082248191581</v>
       </c>
       <c r="G217" t="n">
-        <v>27.91731750593947</v>
+        <v>23.66893168826606</v>
       </c>
       <c r="K217" t="n">
-        <v>9.475409507751465</v>
+        <v>9.496963500976562</v>
       </c>
     </row>
     <row r="218">
@@ -6071,22 +6071,22 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>13.03198799778596</v>
+        <v>16.14517412903782</v>
       </c>
       <c r="D218" t="n">
         <v>0.8</v>
       </c>
       <c r="E218" t="n">
-        <v>0.02305236176201298</v>
+        <v>0.03007900770359027</v>
       </c>
       <c r="F218" t="n">
-        <v>37.01151206584272</v>
+        <v>49.21017469475669</v>
       </c>
       <c r="G218" t="n">
-        <v>54.08587221287885</v>
+        <v>68.91588923709767</v>
       </c>
       <c r="K218" t="n">
-        <v>20.32573127746582</v>
+        <v>19.95489120483398</v>
       </c>
     </row>
     <row r="219">
@@ -6094,25 +6094,25 @@
         <v>0</v>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>12.44308426397465</v>
+        <v>7.144001156178766</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E219" t="n">
-        <v>0.03129971663711036</v>
+        <v>0.005438257356811705</v>
       </c>
       <c r="F219" t="n">
-        <v>60.44354774707159</v>
+        <v>20.97732398654365</v>
       </c>
       <c r="G219" t="n">
-        <v>38.90384004129801</v>
+        <v>20.23314960621669</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.870421409606934</v>
+        <v>5.06182861328125</v>
       </c>
     </row>
     <row r="220">
@@ -6123,22 +6123,22 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>7.121447803637821</v>
+        <v>10.21985792932751</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E220" t="n">
-        <v>0.005664598382869706</v>
+        <v>0.02604960245927384</v>
       </c>
       <c r="F220" t="n">
-        <v>21.02889194198337</v>
+        <v>57.59146663960674</v>
       </c>
       <c r="G220" t="n">
-        <v>20.45241284719145</v>
+        <v>31.31667790266431</v>
       </c>
       <c r="K220" t="n">
-        <v>5.123416423797607</v>
+        <v>10.38086891174316</v>
       </c>
     </row>
     <row r="221">
@@ -6149,22 +6149,22 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>10.67360530867093</v>
+        <v>7.29970318690137</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00330360307394955</v>
+        <v>0.007019023007253839</v>
       </c>
       <c r="F221" t="n">
-        <v>8.982801705733142</v>
+        <v>20.10844308714123</v>
       </c>
       <c r="G221" t="n">
-        <v>20.42439304815176</v>
+        <v>26.26027884777172</v>
       </c>
       <c r="K221" t="n">
-        <v>5.482560634613037</v>
+        <v>9.511574745178223</v>
       </c>
     </row>
     <row r="222">
@@ -6172,25 +6172,25 @@
         <v>0</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C222" t="n">
-        <v>16.75272279946739</v>
+        <v>12.81957367362936</v>
       </c>
       <c r="D222" t="n">
         <v>0.9</v>
       </c>
       <c r="E222" t="n">
-        <v>0.03040818107048191</v>
+        <v>0.02089450270349591</v>
       </c>
       <c r="F222" t="n">
-        <v>50.83680662381559</v>
+        <v>40.17702394991473</v>
       </c>
       <c r="G222" t="n">
-        <v>62.03657874023233</v>
+        <v>48.66571084869304</v>
       </c>
       <c r="K222" t="n">
-        <v>50.06142425537109</v>
+        <v>-4.752981185913086</v>
       </c>
     </row>
     <row r="223">
@@ -6198,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>13.00640452580243</v>
+        <v>14.27136127826682</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E223" t="n">
-        <v>0.02108517328653855</v>
+        <v>0.02602697359853148</v>
       </c>
       <c r="F223" t="n">
-        <v>39.91593605858336</v>
+        <v>41.95735955665543</v>
       </c>
       <c r="G223" t="n">
-        <v>50.10464746443179</v>
+        <v>59.66236183979063</v>
       </c>
       <c r="K223" t="n">
-        <v>-4.747547149658203</v>
+        <v>20.3105354309082</v>
       </c>
     </row>
     <row r="224">
@@ -6227,48 +6227,48 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>6.969377209509139</v>
+        <v>15.66334968042024</v>
       </c>
       <c r="D224" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00541911821453871</v>
+        <v>0.0290872760438565</v>
       </c>
       <c r="F224" t="n">
-        <v>21.72030931784974</v>
+        <v>47.35838351630622</v>
       </c>
       <c r="G224" t="n">
-        <v>20.89479220330612</v>
+        <v>64.64243938117642</v>
       </c>
       <c r="K224" t="n">
-        <v>9.848990440368652</v>
+        <v>20.03124618530273</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>11.85858319637062</v>
+        <v>10.40593977192641</v>
       </c>
       <c r="D225" t="n">
         <v>0.7</v>
       </c>
       <c r="E225" t="n">
-        <v>0.02986331953756533</v>
+        <v>0.02647919778222387</v>
       </c>
       <c r="F225" t="n">
-        <v>58.23520316858467</v>
+        <v>57.4152751401175</v>
       </c>
       <c r="G225" t="n">
-        <v>37.23178855727323</v>
+        <v>32.02967538845533</v>
       </c>
       <c r="K225" t="n">
-        <v>-19.66531372070312</v>
+        <v>-10.3642635345459</v>
       </c>
     </row>
     <row r="226">
@@ -6279,22 +6279,22 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>6.735082918317962</v>
+        <v>10.56868402894097</v>
       </c>
       <c r="D226" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E226" t="n">
-        <v>0.00735932843611288</v>
+        <v>0.002621936815041161</v>
       </c>
       <c r="F226" t="n">
-        <v>23.70581610307124</v>
+        <v>9.790492981359446</v>
       </c>
       <c r="G226" t="n">
-        <v>23.57565369326017</v>
+        <v>19.82892725464786</v>
       </c>
       <c r="K226" t="n">
-        <v>10.41780662536621</v>
+        <v>4.521079540252686</v>
       </c>
     </row>
     <row r="227">
@@ -6302,25 +6302,25 @@
         <v>0</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>14.88941540306726</v>
+        <v>11.99474141791487</v>
       </c>
       <c r="D227" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E227" t="n">
-        <v>0.0274179485340235</v>
+        <v>0.03025831779234909</v>
       </c>
       <c r="F227" t="n">
-        <v>44.32831876881289</v>
+        <v>59.53501888849853</v>
       </c>
       <c r="G227" t="n">
-        <v>62.74452386286555</v>
+        <v>37.46999767211307</v>
       </c>
       <c r="K227" t="n">
-        <v>20.32388496398926</v>
+        <v>-9.864109039306641</v>
       </c>
     </row>
     <row r="228">
@@ -6331,22 +6331,22 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>14.74398191837969</v>
+        <v>13.23231175147249</v>
       </c>
       <c r="D228" t="n">
         <v>0.8</v>
       </c>
       <c r="E228" t="n">
-        <v>0.02715531673717198</v>
+        <v>0.02351918545203066</v>
       </c>
       <c r="F228" t="n">
-        <v>44.24493450152553</v>
+        <v>37.66960544875718</v>
       </c>
       <c r="G228" t="n">
-        <v>59.74751199106144</v>
+        <v>55.42861086235953</v>
       </c>
       <c r="K228" t="n">
-        <v>20.04484558105469</v>
+        <v>20.04262542724609</v>
       </c>
     </row>
     <row r="229">
@@ -6354,25 +6354,25 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>10.95014833697329</v>
+        <v>7.362080395914624</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E229" t="n">
-        <v>0.02765631456178407</v>
+        <v>0.00610698143679732</v>
       </c>
       <c r="F229" t="n">
-        <v>56.44791046890887</v>
+        <v>19.47420202887184</v>
       </c>
       <c r="G229" t="n">
-        <v>34.20509375479873</v>
+        <v>22.64415362863998</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.827269554138184</v>
+        <v>5.239253044128418</v>
       </c>
     </row>
     <row r="230">
@@ -6383,22 +6383,22 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>7.865729467555881</v>
+        <v>14.13705658805021</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E230" t="n">
-        <v>0.004714043638339087</v>
+        <v>0.02568517657077764</v>
       </c>
       <c r="F230" t="n">
-        <v>17.62594722106636</v>
+        <v>41.26589461595795</v>
       </c>
       <c r="G230" t="n">
-        <v>22.27179083382497</v>
+        <v>60.12038923008893</v>
       </c>
       <c r="K230" t="n">
-        <v>4.297653198242188</v>
+        <v>20.01665878295898</v>
       </c>
     </row>
     <row r="231">
@@ -6409,22 +6409,22 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>7.233339020995682</v>
+        <v>8.055123550657674</v>
       </c>
       <c r="D231" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E231" t="n">
-        <v>0.005984586598608107</v>
+        <v>0.004656793852528904</v>
       </c>
       <c r="F231" t="n">
-        <v>20.27298324551605</v>
+        <v>16.47843767939751</v>
       </c>
       <c r="G231" t="n">
-        <v>21.64157335750728</v>
+        <v>23.44071502805675</v>
       </c>
       <c r="K231" t="n">
-        <v>5.209122180938721</v>
+        <v>4.265746593475342</v>
       </c>
     </row>
     <row r="232">
@@ -6435,48 +6435,48 @@
         <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>16.09922566506167</v>
+        <v>15.4631202491011</v>
       </c>
       <c r="D232" t="n">
         <v>0.8</v>
       </c>
       <c r="E232" t="n">
-        <v>0.029981522317085</v>
+        <v>0.02867396146040763</v>
       </c>
       <c r="F232" t="n">
-        <v>48.97053968558809</v>
+        <v>46.74292373681556</v>
       </c>
       <c r="G232" t="n">
-        <v>65.95096466501155</v>
+        <v>63.05424608053934</v>
       </c>
       <c r="K232" t="n">
-        <v>-5.023097515106201</v>
+        <v>-5.031569480895996</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>15.53965140543218</v>
+        <v>16.16217225824932</v>
       </c>
       <c r="D233" t="n">
         <v>0.7</v>
       </c>
       <c r="E233" t="n">
-        <v>0.03287601945037027</v>
+        <v>0.0344862062073631</v>
       </c>
       <c r="F233" t="n">
-        <v>46.93356509463183</v>
+        <v>49.46814396647783</v>
       </c>
       <c r="G233" t="n">
-        <v>67.00594870782597</v>
+        <v>70.16447857320321</v>
       </c>
       <c r="K233" t="n">
-        <v>14.01850700378418</v>
+        <v>-15.68371963500977</v>
       </c>
     </row>
     <row r="234">
@@ -6487,48 +6487,48 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>10.94665632534464</v>
+        <v>14.23908995789477</v>
       </c>
       <c r="D234" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E234" t="n">
-        <v>0.003566181385117126</v>
+        <v>0.02592729606835984</v>
       </c>
       <c r="F234" t="n">
-        <v>5.168580433133055</v>
+        <v>41.6918214322032</v>
       </c>
       <c r="G234" t="n">
-        <v>21.76167657918501</v>
+        <v>60.47627348975671</v>
       </c>
       <c r="K234" t="n">
-        <v>4.522664546966553</v>
+        <v>20.01766395568848</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>7.160177850426818</v>
+        <v>11.55221149362162</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E235" t="n">
-        <v>0.007067221310452142</v>
+        <v>0.02907746353874377</v>
       </c>
       <c r="F235" t="n">
-        <v>20.95986463461852</v>
+        <v>57.09201404278919</v>
       </c>
       <c r="G235" t="n">
-        <v>25.43126818532513</v>
+        <v>36.32360411873155</v>
       </c>
       <c r="K235" t="n">
-        <v>9.508166313171387</v>
+        <v>-19.66561698913574</v>
       </c>
     </row>
     <row r="236">
@@ -6539,22 +6539,22 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>7.135718093296226</v>
+        <v>6.762687623555635</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E236" t="n">
-        <v>0.005420201839553026</v>
+        <v>0.00717184430197971</v>
       </c>
       <c r="F236" t="n">
-        <v>21.03192286614404</v>
+        <v>23.49143091139468</v>
       </c>
       <c r="G236" t="n">
-        <v>20.1585389372093</v>
+        <v>23.60313297833905</v>
       </c>
       <c r="K236" t="n">
-        <v>5.0599365234375</v>
+        <v>10.30520248413086</v>
       </c>
     </row>
     <row r="237">
@@ -6565,22 +6565,22 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>14.98584191241511</v>
+        <v>7.139563457486471</v>
       </c>
       <c r="D237" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E237" t="n">
-        <v>0.02762918801025865</v>
+        <v>0.006028978367131482</v>
       </c>
       <c r="F237" t="n">
-        <v>44.69146766794243</v>
+        <v>20.811705022946</v>
       </c>
       <c r="G237" t="n">
-        <v>63.46864859205404</v>
+        <v>21.16131109090271</v>
       </c>
       <c r="K237" t="n">
-        <v>20.36003303527832</v>
+        <v>5.224959373474121</v>
       </c>
     </row>
     <row r="238">
@@ -6591,22 +6591,22 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>7.750884080381057</v>
+        <v>7.386215939481816</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E238" t="n">
-        <v>0.005866835856924373</v>
+        <v>0.004893202322132988</v>
       </c>
       <c r="F238" t="n">
-        <v>17.1734733593533</v>
+        <v>31.74437158776696</v>
       </c>
       <c r="G238" t="n">
-        <v>24.74504734347229</v>
+        <v>3.324317623521178</v>
       </c>
       <c r="K238" t="n">
-        <v>5.172417640686035</v>
+        <v>4.628600597381592</v>
       </c>
     </row>
     <row r="239">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>13.20118729201243</v>
+        <v>7.748488669923692</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E239" t="n">
-        <v>0.02346919191470766</v>
+        <v>0.00523475185612025</v>
       </c>
       <c r="F239" t="n">
-        <v>37.67434937762944</v>
+        <v>17.06429055992401</v>
       </c>
       <c r="G239" t="n">
-        <v>54.91463748606787</v>
+        <v>25.45919283114241</v>
       </c>
       <c r="K239" t="n">
-        <v>20.32451438903809</v>
+        <v>9.92682933807373</v>
       </c>
     </row>
     <row r="240">
@@ -6640,51 +6640,51 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>12.63750635736001</v>
+        <v>9.410511114917352</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E240" t="n">
-        <v>0.02023204383155645</v>
+        <v>0.02345721079214324</v>
       </c>
       <c r="F240" t="n">
-        <v>38.20767791082754</v>
+        <v>52.0396151976277</v>
       </c>
       <c r="G240" t="n">
-        <v>48.9648766475166</v>
+        <v>29.04468848743692</v>
       </c>
       <c r="K240" t="n">
-        <v>-4.736371994018555</v>
+        <v>10.23198413848877</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>11.60966272341771</v>
+        <v>7.642269348345875</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E241" t="n">
-        <v>0.02944440788057985</v>
+        <v>0.004361390067265052</v>
       </c>
       <c r="F241" t="n">
-        <v>61.27194043121257</v>
+        <v>18.41711091879453</v>
       </c>
       <c r="G241" t="n">
-        <v>35.75324794898839</v>
+        <v>21.93630725798637</v>
       </c>
       <c r="K241" t="n">
-        <v>-20.36324882507324</v>
+        <v>7.538815975189209</v>
       </c>
     </row>
     <row r="242">
@@ -6695,22 +6695,22 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>7.350934625499067</v>
+        <v>15.52969860944059</v>
       </c>
       <c r="D242" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E242" t="n">
-        <v>0.005353977108050538</v>
+        <v>0.02881131572754737</v>
       </c>
       <c r="F242" t="n">
-        <v>32.20455922496187</v>
+        <v>46.79959162597925</v>
       </c>
       <c r="G242" t="n">
-        <v>4.370390627835736</v>
+        <v>65.42678100553758</v>
       </c>
       <c r="K242" t="n">
-        <v>5.371799468994141</v>
+        <v>20.32969093322754</v>
       </c>
     </row>
     <row r="243">
@@ -6718,25 +6718,25 @@
         <v>0</v>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>10.64813998722566</v>
+        <v>7.5247344199893</v>
       </c>
       <c r="D243" t="n">
         <v>0.7</v>
       </c>
       <c r="E243" t="n">
-        <v>0.02717316472322434</v>
+        <v>0.007196633422852081</v>
       </c>
       <c r="F243" t="n">
-        <v>60.74755970493434</v>
+        <v>18.9479706850291</v>
       </c>
       <c r="G243" t="n">
-        <v>32.4056272805127</v>
+        <v>28.35753769519648</v>
       </c>
       <c r="K243" t="n">
-        <v>-9.932316780090332</v>
+        <v>10.47994327545166</v>
       </c>
     </row>
     <row r="244">
@@ -6747,22 +6747,22 @@
         <v>8</v>
       </c>
       <c r="C244" t="n">
-        <v>13.30676030646979</v>
+        <v>16.10678541710946</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E244" t="n">
-        <v>0.02209865082263456</v>
+        <v>0.02999647040232793</v>
       </c>
       <c r="F244" t="n">
-        <v>43.03253505009666</v>
+        <v>49.00198375709189</v>
       </c>
       <c r="G244" t="n">
-        <v>49.65382961112684</v>
+        <v>65.92867052283694</v>
       </c>
       <c r="K244" t="n">
-        <v>-4.772905349731445</v>
+        <v>-5.023719787597656</v>
       </c>
     </row>
     <row r="245">
@@ -6773,48 +6773,48 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>7.041606774569611</v>
+        <v>14.74406665262723</v>
       </c>
       <c r="D245" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E245" t="n">
-        <v>0.005394893937326692</v>
+        <v>0.0270773989127349</v>
       </c>
       <c r="F245" t="n">
-        <v>21.30180921227689</v>
+        <v>43.72074584199441</v>
       </c>
       <c r="G245" t="n">
-        <v>21.26867968521739</v>
+        <v>63.01356979273783</v>
       </c>
       <c r="K245" t="n">
-        <v>9.861990928649902</v>
+        <v>19.99706649780273</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>11.90572538762398</v>
+        <v>11.56890678645389</v>
       </c>
       <c r="D246" t="n">
         <v>0.7</v>
       </c>
       <c r="E246" t="n">
-        <v>0.03001147024884676</v>
+        <v>0.02913339795120581</v>
       </c>
       <c r="F246" t="n">
-        <v>58.78955938256711</v>
+        <v>57.2798171583042</v>
       </c>
       <c r="G246" t="n">
-        <v>37.29491203846334</v>
+        <v>36.34974772896</v>
       </c>
       <c r="K246" t="n">
-        <v>-9.851230621337891</v>
+        <v>-19.66458892822266</v>
       </c>
     </row>
     <row r="247">
@@ -6825,22 +6825,22 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>13.65061959051707</v>
+        <v>6.878213510328716</v>
       </c>
       <c r="D247" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E247" t="n">
-        <v>0.024544490442021</v>
+        <v>0.005678559215391264</v>
       </c>
       <c r="F247" t="n">
-        <v>39.37221383255255</v>
+        <v>22.22438510512041</v>
       </c>
       <c r="G247" t="n">
-        <v>57.37409626535381</v>
+        <v>20.8773248865268</v>
       </c>
       <c r="K247" t="n">
-        <v>20.03588676452637</v>
+        <v>9.748604774475098</v>
       </c>
     </row>
     <row r="248">
@@ -6848,25 +6848,25 @@
         <v>0</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C248" t="n">
-        <v>8.210905674362019</v>
+        <v>15.49232397403596</v>
       </c>
       <c r="D248" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E248" t="n">
-        <v>0.01860871250702363</v>
+        <v>0.02873517455244103</v>
       </c>
       <c r="F248" t="n">
-        <v>48.08692656294871</v>
+        <v>46.85081843119413</v>
       </c>
       <c r="G248" t="n">
-        <v>24.84715124661964</v>
+        <v>63.15626221491269</v>
       </c>
       <c r="K248" t="n">
-        <v>10.15474987030029</v>
+        <v>-5.031518936157227</v>
       </c>
     </row>
     <row r="249">
@@ -6877,22 +6877,22 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>7.972172618650308</v>
+        <v>13.40089030735411</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E249" t="n">
-        <v>0.009594496358288003</v>
+        <v>0.02391959383677453</v>
       </c>
       <c r="F249" t="n">
-        <v>26.16442964641554</v>
+        <v>38.2787977319138</v>
       </c>
       <c r="G249" t="n">
-        <v>28.44936547960909</v>
+        <v>56.50875814257222</v>
       </c>
       <c r="K249" t="n">
-        <v>49.28949737548828</v>
+        <v>20.03523063659668</v>
       </c>
     </row>
     <row r="250">
@@ -6903,22 +6903,22 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>13.90478015838529</v>
+        <v>7.940707111039891</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E250" t="n">
-        <v>0.02513303163529896</v>
+        <v>0.004990490385255545</v>
       </c>
       <c r="F250" t="n">
-        <v>40.30842973943335</v>
+        <v>16.39713514960716</v>
       </c>
       <c r="G250" t="n">
-        <v>59.09915405642988</v>
+        <v>24.48124085561912</v>
       </c>
       <c r="K250" t="n">
-        <v>20.02018356323242</v>
+        <v>3.911221981048584</v>
       </c>
     </row>
     <row r="251">
@@ -6929,22 +6929,22 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>10.49287180552183</v>
+        <v>7.965273131624802</v>
       </c>
       <c r="D251" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E251" t="n">
-        <v>0.02679797247122196</v>
+        <v>0.005038249768112995</v>
       </c>
       <c r="F251" t="n">
-        <v>60.73462781215698</v>
+        <v>15.72490870472196</v>
       </c>
       <c r="G251" t="n">
-        <v>31.85259941312233</v>
+        <v>26.63021385988795</v>
       </c>
       <c r="K251" t="n">
-        <v>10.40429019927979</v>
+        <v>9.994999885559082</v>
       </c>
     </row>
     <row r="252">
@@ -6952,25 +6952,25 @@
         <v>0</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C252" t="n">
-        <v>7.810644773244068</v>
+        <v>10.57948627736248</v>
       </c>
       <c r="D252" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E252" t="n">
-        <v>0.006579536103040714</v>
+        <v>0.02674142808233533</v>
       </c>
       <c r="F252" t="n">
-        <v>16.73977982341744</v>
+        <v>65.08596164138959</v>
       </c>
       <c r="G252" t="n">
-        <v>29.21329969175343</v>
+        <v>31.60751064968046</v>
       </c>
       <c r="K252" t="n">
-        <v>9.726590156555176</v>
+        <v>-10.45144271850586</v>
       </c>
     </row>
     <row r="253">
@@ -6981,22 +6981,22 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>7.966594299866351</v>
+        <v>14.01562364383382</v>
       </c>
       <c r="D253" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E253" t="n">
-        <v>0.004969215648468054</v>
+        <v>0.02542348465303508</v>
       </c>
       <c r="F253" t="n">
-        <v>15.74472850032532</v>
+        <v>40.89049493884757</v>
       </c>
       <c r="G253" t="n">
-        <v>26.48893889274613</v>
+        <v>58.80565367779712</v>
       </c>
       <c r="K253" t="n">
-        <v>10.02136135101318</v>
+        <v>20.32050895690918</v>
       </c>
     </row>
     <row r="254">
@@ -7007,22 +7007,22 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>7.499369299569562</v>
+        <v>14.46280898165259</v>
       </c>
       <c r="D254" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E254" t="n">
-        <v>0.004820881209470369</v>
+        <v>0.02645114646323833</v>
       </c>
       <c r="F254" t="n">
-        <v>30.90428502515132</v>
+        <v>42.61852264017875</v>
       </c>
       <c r="G254" t="n">
-        <v>3.393991012727296</v>
+        <v>61.20258736817007</v>
       </c>
       <c r="K254" t="n">
-        <v>4.628489971160889</v>
+        <v>20.02037620544434</v>
       </c>
     </row>
     <row r="255">
@@ -7030,25 +7030,25 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>11.28233740480853</v>
+        <v>15.57344183808931</v>
       </c>
       <c r="D255" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E255" t="n">
-        <v>0.02850993635084658</v>
+        <v>0.02885993486909371</v>
       </c>
       <c r="F255" t="n">
-        <v>57.484967984736</v>
+        <v>47.03434980038657</v>
       </c>
       <c r="G255" t="n">
-        <v>35.25353948601306</v>
+        <v>66.85058890660005</v>
       </c>
       <c r="K255" t="n">
-        <v>-9.840388298034668</v>
+        <v>19.9358081817627</v>
       </c>
     </row>
     <row r="256">
@@ -7059,48 +7059,48 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>13.74078786934548</v>
+        <v>13.68674489184176</v>
       </c>
       <c r="D256" t="n">
         <v>0.8</v>
       </c>
       <c r="E256" t="n">
-        <v>0.02477099554085793</v>
+        <v>0.02460802936703453</v>
       </c>
       <c r="F256" t="n">
-        <v>39.78666600828332</v>
+        <v>39.40971155122962</v>
       </c>
       <c r="G256" t="n">
-        <v>57.57919518682453</v>
+        <v>58.08162440834204</v>
       </c>
       <c r="K256" t="n">
-        <v>20.32286643981934</v>
+        <v>20.0247974395752</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B257" t="n">
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>10.33388744862737</v>
+        <v>14.4876268610915</v>
       </c>
       <c r="D257" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E257" t="n">
-        <v>0.02577181426301378</v>
+        <v>0.0264919897622652</v>
       </c>
       <c r="F257" t="n">
-        <v>52.91960746485009</v>
+        <v>42.68115396888375</v>
       </c>
       <c r="G257" t="n">
-        <v>32.46346207004959</v>
+        <v>61.93117426800333</v>
       </c>
       <c r="K257" t="n">
-        <v>-19.65773963928223</v>
+        <v>20.00038146972656</v>
       </c>
     </row>
     <row r="258">
@@ -7111,22 +7111,22 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>7.129614195039843</v>
+        <v>11.27957361406085</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E258" t="n">
-        <v>0.007083336335994739</v>
+        <v>0.02843863026858647</v>
       </c>
       <c r="F258" t="n">
-        <v>21.1493323615803</v>
+        <v>56.80516902243822</v>
       </c>
       <c r="G258" t="n">
-        <v>25.26660613853037</v>
+        <v>35.36610444373684</v>
       </c>
       <c r="K258" t="n">
-        <v>9.497115135192871</v>
+        <v>10.34029006958008</v>
       </c>
     </row>
     <row r="259">
@@ -7137,22 +7137,22 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>6.884858166216491</v>
+        <v>11.37589546028675</v>
       </c>
       <c r="D259" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E259" t="n">
-        <v>0.007084602379092953</v>
+        <v>0.02877133507887917</v>
       </c>
       <c r="F259" t="n">
-        <v>22.57657512038598</v>
+        <v>58.08510433157757</v>
       </c>
       <c r="G259" t="n">
-        <v>23.7537527769532</v>
+        <v>35.48933589419769</v>
       </c>
       <c r="K259" t="n">
-        <v>9.55384635925293</v>
+        <v>10.14968681335449</v>
       </c>
     </row>
     <row r="260">
@@ -7160,51 +7160,51 @@
         <v>0</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C260" t="n">
-        <v>7.60654495658207</v>
+        <v>8.409875664836973</v>
       </c>
       <c r="D260" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E260" t="n">
-        <v>0.005138583291268905</v>
+        <v>0.01901633508549017</v>
       </c>
       <c r="F260" t="n">
-        <v>18.37522116720392</v>
+        <v>47.54431544411582</v>
       </c>
       <c r="G260" t="n">
-        <v>22.55198536253709</v>
+        <v>25.81044454866854</v>
       </c>
       <c r="K260" t="n">
-        <v>5.722945690155029</v>
+        <v>-9.830368995666504</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B261" t="n">
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>15.51664727567987</v>
+        <v>15.81447153154323</v>
       </c>
       <c r="D261" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E261" t="n">
-        <v>0.02876778226869005</v>
+        <v>0.03371651974190785</v>
       </c>
       <c r="F261" t="n">
-        <v>46.79139683750537</v>
+        <v>48.19776200634979</v>
       </c>
       <c r="G261" t="n">
-        <v>66.38406289421992</v>
+        <v>69.21842191300141</v>
       </c>
       <c r="K261" t="n">
-        <v>19.9720630645752</v>
+        <v>-19.89328193664551</v>
       </c>
     </row>
     <row r="262">
@@ -7215,22 +7215,22 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>7.838547909023022</v>
+        <v>8.048084378854668</v>
       </c>
       <c r="D262" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E262" t="n">
-        <v>0.005383924667333762</v>
+        <v>0.01049520307640577</v>
       </c>
       <c r="F262" t="n">
-        <v>16.44249916534061</v>
+        <v>25.09068537816393</v>
       </c>
       <c r="G262" t="n">
-        <v>26.46532826126742</v>
+        <v>29.098319085945</v>
       </c>
       <c r="K262" t="n">
-        <v>9.863014221191406</v>
+        <v>20.65752410888672</v>
       </c>
     </row>
     <row r="263">
@@ -7241,22 +7241,22 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>14.45649541272252</v>
+        <v>7.095011622092649</v>
       </c>
       <c r="D263" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E263" t="n">
-        <v>0.02641465816699967</v>
+        <v>0.006108277694131018</v>
       </c>
       <c r="F263" t="n">
-        <v>42.55046228852213</v>
+        <v>21.05207315287245</v>
       </c>
       <c r="G263" t="n">
-        <v>61.92724799718454</v>
+        <v>21.03641839250869</v>
       </c>
       <c r="K263" t="n">
-        <v>19.99423599243164</v>
+        <v>5.247799396514893</v>
       </c>
     </row>
     <row r="264">
@@ -7267,22 +7267,22 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>15.05172722333878</v>
+        <v>14.93008297992594</v>
       </c>
       <c r="D264" t="n">
         <v>0.8</v>
       </c>
       <c r="E264" t="n">
-        <v>0.02770992217285858</v>
+        <v>0.02751272607314675</v>
       </c>
       <c r="F264" t="n">
-        <v>44.97610273816105</v>
+        <v>44.53539028284034</v>
       </c>
       <c r="G264" t="n">
-        <v>64.8281643384715</v>
+        <v>62.35888110900543</v>
       </c>
       <c r="K264" t="n">
-        <v>19.92737770080566</v>
+        <v>20.30080795288086</v>
       </c>
     </row>
     <row r="265">
@@ -7290,25 +7290,25 @@
         <v>0</v>
       </c>
       <c r="B265" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>16.11863401377666</v>
+        <v>7.112950948405709</v>
       </c>
       <c r="D265" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E265" t="n">
-        <v>0.03002530637600708</v>
+        <v>0.006137082981658956</v>
       </c>
       <c r="F265" t="n">
-        <v>49.2576215735052</v>
+        <v>20.94002899872437</v>
       </c>
       <c r="G265" t="n">
-        <v>64.56203766218712</v>
+        <v>21.19139331341292</v>
       </c>
       <c r="K265" t="n">
-        <v>-5.036308288574219</v>
+        <v>5.254654407501221</v>
       </c>
     </row>
     <row r="266">
@@ -7319,22 +7319,22 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>7.103190239837166</v>
+        <v>16.07637577073848</v>
       </c>
       <c r="D266" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E266" t="n">
-        <v>0.005907950747644062</v>
+        <v>0.02994231098837134</v>
       </c>
       <c r="F266" t="n">
-        <v>21.05852055269181</v>
+        <v>48.84769972672746</v>
       </c>
       <c r="G266" t="n">
-        <v>20.74349818317218</v>
+        <v>66.58038607115103</v>
       </c>
       <c r="K266" t="n">
-        <v>5.193559169769287</v>
+        <v>20.02607536315918</v>
       </c>
     </row>
     <row r="267">
@@ -7345,22 +7345,22 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>15.92187969321555</v>
+        <v>7.542945166759513</v>
       </c>
       <c r="D267" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E267" t="n">
-        <v>0.02963803418863893</v>
+        <v>0.00710183822165274</v>
       </c>
       <c r="F267" t="n">
-        <v>48.29820430678332</v>
+        <v>18.8050657816308</v>
       </c>
       <c r="G267" t="n">
-        <v>67.31914111743633</v>
+        <v>28.4102477954363</v>
       </c>
       <c r="K267" t="n">
-        <v>16.25020408630371</v>
+        <v>10.4298791885376</v>
       </c>
     </row>
     <row r="268">
@@ -7371,22 +7371,22 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>16.06153739266428</v>
+        <v>13.86366722714795</v>
       </c>
       <c r="D268" t="n">
         <v>0.8</v>
       </c>
       <c r="E268" t="n">
-        <v>0.02992269717212151</v>
+        <v>0.02502977303354176</v>
       </c>
       <c r="F268" t="n">
-        <v>48.79520927687415</v>
+        <v>40.12293643934726</v>
       </c>
       <c r="G268" t="n">
-        <v>67.32627513035766</v>
+        <v>59.03115222237083</v>
       </c>
       <c r="K268" t="n">
-        <v>20.01450157165527</v>
+        <v>20.01754760742188</v>
       </c>
     </row>
     <row r="269">
@@ -7397,22 +7397,22 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>14.28562685229528</v>
+        <v>6.756045264525313</v>
       </c>
       <c r="D269" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E269" t="n">
-        <v>0.02602783553518001</v>
+        <v>0.007427441772274905</v>
       </c>
       <c r="F269" t="n">
-        <v>41.86040582705972</v>
+        <v>23.6058973618943</v>
       </c>
       <c r="G269" t="n">
-        <v>60.94786810915161</v>
+        <v>23.7475211961552</v>
       </c>
       <c r="K269" t="n">
-        <v>20.00861167907715</v>
+        <v>10.45857715606689</v>
       </c>
     </row>
     <row r="270">
@@ -7423,22 +7423,22 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>7.385986691200108</v>
+        <v>14.11092584269695</v>
       </c>
       <c r="D270" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E270" t="n">
-        <v>0.006673889652203694</v>
+        <v>0.02567107220503028</v>
       </c>
       <c r="F270" t="n">
-        <v>19.67793954628912</v>
+        <v>41.42102886413245</v>
       </c>
       <c r="G270" t="n">
-        <v>27.0957316467244</v>
+        <v>58.55807509234405</v>
       </c>
       <c r="K270" t="n">
-        <v>10.08167266845703</v>
+        <v>20.30451011657715</v>
       </c>
     </row>
     <row r="271">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>14.47179539055655</v>
+        <v>10.09645832791512</v>
       </c>
       <c r="D271" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02646073715500525</v>
+        <v>0.0258313143534692</v>
       </c>
       <c r="F271" t="n">
-        <v>42.62285480338997</v>
+        <v>60.25826122323051</v>
       </c>
       <c r="G271" t="n">
-        <v>61.7047727543347</v>
+        <v>30.49856852634073</v>
       </c>
       <c r="K271" t="n">
-        <v>20.00703048706055</v>
+        <v>9.596905708312988</v>
       </c>
     </row>
     <row r="272">
@@ -7475,22 +7475,22 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>7.830324302093109</v>
+        <v>6.764930186089353</v>
       </c>
       <c r="D272" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E272" t="n">
-        <v>0.004716502435596408</v>
+        <v>0.007162612346033701</v>
       </c>
       <c r="F272" t="n">
-        <v>18.06203070163031</v>
+        <v>23.47591574584765</v>
       </c>
       <c r="G272" t="n">
-        <v>21.7405107514994</v>
+        <v>23.60989063911085</v>
       </c>
       <c r="K272" t="n">
-        <v>4.358083248138428</v>
+        <v>10.2995491027832</v>
       </c>
     </row>
     <row r="273">
@@ -7501,74 +7501,74 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>13.56481875118811</v>
+        <v>11.04400067231498</v>
       </c>
       <c r="D273" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E273" t="n">
-        <v>0.02432045021902778</v>
+        <v>0.02807604217564958</v>
       </c>
       <c r="F273" t="n">
-        <v>38.94614246032566</v>
+        <v>59.1616422509415</v>
       </c>
       <c r="G273" t="n">
-        <v>57.30865838811125</v>
+        <v>34.08673089111849</v>
       </c>
       <c r="K273" t="n">
-        <v>20.03182029724121</v>
+        <v>10.36896133422852</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B274" t="n">
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>15.98777343623043</v>
+        <v>7.995412186379808</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E274" t="n">
-        <v>0.03404260197791686</v>
+        <v>0.00579314360193161</v>
       </c>
       <c r="F274" t="n">
-        <v>48.7614066648291</v>
+        <v>15.61871396946707</v>
       </c>
       <c r="G274" t="n">
-        <v>69.30818674233524</v>
+        <v>26.39169760094367</v>
       </c>
       <c r="K274" t="n">
-        <v>-15.77058124542236</v>
+        <v>5.159573078155518</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B275" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>10.8481214323956</v>
+        <v>15.68084103611889</v>
       </c>
       <c r="D275" t="n">
         <v>0.7</v>
       </c>
       <c r="E275" t="n">
-        <v>0.02749658634221032</v>
+        <v>0.03339924867643106</v>
       </c>
       <c r="F275" t="n">
-        <v>57.23377167918905</v>
+        <v>47.68097591980488</v>
       </c>
       <c r="G275" t="n">
-        <v>33.69263314430727</v>
+        <v>68.74877858828512</v>
       </c>
       <c r="K275" t="n">
-        <v>-20.34886169433594</v>
+        <v>-19.8931941986084</v>
       </c>
     </row>
     <row r="276">
@@ -7579,48 +7579,48 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>16.17445923026961</v>
+        <v>6.897944650301499</v>
       </c>
       <c r="D276" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E276" t="n">
-        <v>0.03015564013997925</v>
+        <v>0.007331532552472228</v>
       </c>
       <c r="F276" t="n">
-        <v>49.21753501107465</v>
+        <v>22.75106459416134</v>
       </c>
       <c r="G276" t="n">
-        <v>67.86883864496616</v>
+        <v>24.50724243067987</v>
       </c>
       <c r="K276" t="n">
-        <v>20.32147598266602</v>
+        <v>10.41232967376709</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>15.72469446434734</v>
+        <v>14.72404506323727</v>
       </c>
       <c r="D277" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E277" t="n">
-        <v>0.03350071776028852</v>
+        <v>0.02702001480322528</v>
       </c>
       <c r="F277" t="n">
-        <v>47.84731431594977</v>
+        <v>43.64116416255672</v>
       </c>
       <c r="G277" t="n">
-        <v>68.88468928620571</v>
+        <v>63.18099344248488</v>
       </c>
       <c r="K277" t="n">
-        <v>-19.8932991027832</v>
+        <v>19.98180389404297</v>
       </c>
     </row>
     <row r="278">
@@ -7631,22 +7631,22 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.062668087988952</v>
+        <v>7.609565918506901</v>
       </c>
       <c r="D278" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E278" t="n">
-        <v>0.004652329298290032</v>
+        <v>0.00504144733481265</v>
       </c>
       <c r="F278" t="n">
-        <v>16.13097761273017</v>
+        <v>18.39850950139778</v>
       </c>
       <c r="G278" t="n">
-        <v>23.94388535128315</v>
+        <v>22.43380543808823</v>
       </c>
       <c r="K278" t="n">
-        <v>4.172039985656738</v>
+        <v>5.668647289276123</v>
       </c>
     </row>
     <row r="279">
@@ -7657,22 +7657,22 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>15.08729673184399</v>
+        <v>7.618733645902906</v>
       </c>
       <c r="D279" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E279" t="n">
-        <v>0.02784918567299946</v>
+        <v>0.004924206062387541</v>
       </c>
       <c r="F279" t="n">
-        <v>45.08824800579345</v>
+        <v>18.39229583205599</v>
       </c>
       <c r="G279" t="n">
-        <v>64.21728404369554</v>
+        <v>22.33453311449733</v>
       </c>
       <c r="K279" t="n">
-        <v>20.00208473205566</v>
+        <v>5.612320423126221</v>
       </c>
     </row>
     <row r="280">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>14.88468113228899</v>
+        <v>7.938898459851452</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E280" t="n">
-        <v>0.02741038105782827</v>
+        <v>0.004691930467855076</v>
       </c>
       <c r="F280" t="n">
-        <v>44.33746853507523</v>
+        <v>17.89251861174127</v>
       </c>
       <c r="G280" t="n">
-        <v>62.38665547280475</v>
+        <v>21.7785146859761</v>
       </c>
       <c r="K280" t="n">
-        <v>20.30795669555664</v>
+        <v>4.420144557952881</v>
       </c>
     </row>
     <row r="281">
@@ -7709,22 +7709,22 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>9.413929993025494</v>
+        <v>14.65531699927256</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E281" t="n">
-        <v>0.02341758560908486</v>
+        <v>0.02689504495439527</v>
       </c>
       <c r="F281" t="n">
-        <v>51.76702335624558</v>
+        <v>43.41923707745863</v>
       </c>
       <c r="G281" t="n">
-        <v>29.09510560174598</v>
+        <v>61.65083513283474</v>
       </c>
       <c r="K281" t="n">
-        <v>10.23754119873047</v>
+        <v>20.31906890869141</v>
       </c>
     </row>
     <row r="282">
@@ -7735,22 +7735,22 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>7.651279955404701</v>
+        <v>10.56015705166879</v>
       </c>
       <c r="D282" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E282" t="n">
-        <v>0.005177398013838351</v>
+        <v>0.02666543196037159</v>
       </c>
       <c r="F282" t="n">
-        <v>17.69214061320093</v>
+        <v>55.56678225017972</v>
       </c>
       <c r="G282" t="n">
-        <v>24.66322160035828</v>
+        <v>32.89524676691725</v>
       </c>
       <c r="K282" t="n">
-        <v>9.954248428344727</v>
+        <v>10.18187618255615</v>
       </c>
     </row>
     <row r="283">
@@ -7758,25 +7758,25 @@
         <v>0</v>
       </c>
       <c r="B283" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>9.374530366240272</v>
+        <v>10.21730659229466</v>
       </c>
       <c r="D283" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E283" t="n">
-        <v>0.02311728848424429</v>
+        <v>0.004230174796481958</v>
       </c>
       <c r="F283" t="n">
-        <v>50.67725484123247</v>
+        <v>16.41644599388993</v>
       </c>
       <c r="G283" t="n">
-        <v>29.09215001508679</v>
+        <v>23.14094185789427</v>
       </c>
       <c r="K283" t="n">
-        <v>-9.74144172668457</v>
+        <v>2.137601375579834</v>
       </c>
     </row>
     <row r="284">
@@ -7787,22 +7787,22 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>6.894942359304435</v>
+        <v>6.893826905091828</v>
       </c>
       <c r="D284" t="n">
         <v>0.6</v>
       </c>
       <c r="E284" t="n">
-        <v>0.007106122930999895</v>
+        <v>0.005294346914797033</v>
       </c>
       <c r="F284" t="n">
-        <v>22.53178171889798</v>
+        <v>22.18140997865302</v>
       </c>
       <c r="G284" t="n">
-        <v>23.85682207813073</v>
+        <v>20.23010840522354</v>
       </c>
       <c r="K284" t="n">
-        <v>9.521980285644531</v>
+        <v>9.891632080078125</v>
       </c>
     </row>
     <row r="285">
@@ -7813,22 +7813,22 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>13.75412077746477</v>
+        <v>7.121505235965088</v>
       </c>
       <c r="D285" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E285" t="n">
-        <v>0.02479107091529927</v>
+        <v>0.006107632853448852</v>
       </c>
       <c r="F285" t="n">
-        <v>39.77794190859984</v>
+        <v>20.89711129867834</v>
       </c>
       <c r="G285" t="n">
-        <v>57.9115685940713</v>
+        <v>21.19064545920088</v>
       </c>
       <c r="K285" t="n">
-        <v>20.03304672241211</v>
+        <v>5.246810913085938</v>
       </c>
     </row>
     <row r="286">
@@ -7836,25 +7836,25 @@
         <v>0</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>10.83639016833787</v>
+        <v>7.774555845613521</v>
       </c>
       <c r="D286" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E286" t="n">
-        <v>0.003235768145325516</v>
+        <v>0.007824709181373044</v>
       </c>
       <c r="F286" t="n">
-        <v>4.968201598430614</v>
+        <v>19.59539958375164</v>
       </c>
       <c r="G286" t="n">
-        <v>21.01356500320569</v>
+        <v>29.91381533355165</v>
       </c>
       <c r="K286" t="n">
-        <v>4.508213996887207</v>
+        <v>-5.362556457519531</v>
       </c>
     </row>
     <row r="287">
@@ -7865,48 +7865,48 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>14.84998674633454</v>
+        <v>7.87480589453223</v>
       </c>
       <c r="D287" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E287" t="n">
-        <v>0.02732707640064688</v>
+        <v>0.005667178056405736</v>
       </c>
       <c r="F287" t="n">
-        <v>44.15660681355743</v>
+        <v>16.47079953522171</v>
       </c>
       <c r="G287" t="n">
-        <v>62.88881180133362</v>
+        <v>25.2286966010228</v>
       </c>
       <c r="K287" t="n">
-        <v>20.01503372192383</v>
+        <v>5.117743015289307</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B288" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>13.26758437253553</v>
+        <v>11.55157945803474</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E288" t="n">
-        <v>0.02184593990281101</v>
+        <v>0.02905112821684314</v>
       </c>
       <c r="F288" t="n">
-        <v>41.98110001319507</v>
+        <v>56.85310085794997</v>
       </c>
       <c r="G288" t="n">
-        <v>50.17283022070337</v>
+        <v>36.36664935819704</v>
       </c>
       <c r="K288" t="n">
-        <v>-4.763678550720215</v>
+        <v>-19.66751861572266</v>
       </c>
     </row>
     <row r="289">
@@ -7917,22 +7917,22 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>10.04230500775176</v>
+        <v>6.970632815115319</v>
       </c>
       <c r="D289" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E289" t="n">
-        <v>0.004144620006601084</v>
+        <v>0.007477032286512876</v>
       </c>
       <c r="F289" t="n">
-        <v>17.28031947977406</v>
+        <v>22.37369731331342</v>
       </c>
       <c r="G289" t="n">
-        <v>21.95409021737046</v>
+        <v>25.04961400867413</v>
       </c>
       <c r="K289" t="n">
-        <v>2.83854341506958</v>
+        <v>10.50511837005615</v>
       </c>
     </row>
     <row r="290">
@@ -7943,22 +7943,22 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>7.469934653322619</v>
+        <v>7.706958001245022</v>
       </c>
       <c r="D290" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E290" t="n">
-        <v>0.004096304325924205</v>
+        <v>0.004760204361568474</v>
       </c>
       <c r="F290" t="n">
-        <v>19.40660340430926</v>
+        <v>18.20322787907801</v>
       </c>
       <c r="G290" t="n">
-        <v>20.85133497475405</v>
+        <v>21.87105129296807</v>
       </c>
       <c r="K290" t="n">
-        <v>7.265093326568604</v>
+        <v>4.206963539123535</v>
       </c>
     </row>
     <row r="291">
@@ -7969,22 +7969,22 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>13.71824863183813</v>
+        <v>6.951058140944592</v>
       </c>
       <c r="D291" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E291" t="n">
-        <v>0.02468657809590768</v>
+        <v>0.005578978842442739</v>
       </c>
       <c r="F291" t="n">
-        <v>39.548580950204</v>
+        <v>21.80669231467302</v>
       </c>
       <c r="G291" t="n">
-        <v>58.17700878097061</v>
+        <v>21.10011693840715</v>
       </c>
       <c r="K291" t="n">
-        <v>20.02527046203613</v>
+        <v>9.78773021697998</v>
       </c>
     </row>
     <row r="292">
@@ -7995,22 +7995,22 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>6.93088748656732</v>
+        <v>8.031364684079866</v>
       </c>
       <c r="D292" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E292" t="n">
-        <v>0.005448903812559885</v>
+        <v>0.01001463043987513</v>
       </c>
       <c r="F292" t="n">
-        <v>21.94009230551718</v>
+        <v>26.86749946681919</v>
       </c>
       <c r="G292" t="n">
-        <v>20.73114807914158</v>
+        <v>28.52374451888841</v>
       </c>
       <c r="K292" t="n">
-        <v>9.834492683410645</v>
+        <v>49.34378814697266</v>
       </c>
     </row>
     <row r="293">
@@ -8021,22 +8021,22 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>6.963304219980106</v>
+        <v>14.95065023277312</v>
       </c>
       <c r="D293" t="n">
         <v>0.7</v>
       </c>
       <c r="E293" t="n">
-        <v>0.007516133785725227</v>
+        <v>0.0313879764952141</v>
       </c>
       <c r="F293" t="n">
-        <v>22.43001111141624</v>
+        <v>44.57962913507006</v>
       </c>
       <c r="G293" t="n">
-        <v>25.03606141677583</v>
+        <v>64.57476728432023</v>
       </c>
       <c r="K293" t="n">
-        <v>10.52652168273926</v>
+        <v>13.82983016967773</v>
       </c>
     </row>
     <row r="294">
@@ -8044,25 +8044,25 @@
         <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>10.78778403526769</v>
+        <v>15.19675692492852</v>
       </c>
       <c r="D294" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E294" t="n">
-        <v>0.02731241389313727</v>
+        <v>0.02809104632178816</v>
       </c>
       <c r="F294" t="n">
-        <v>56.72708705020153</v>
+        <v>45.5170158278563</v>
       </c>
       <c r="G294" t="n">
-        <v>33.5546317321185</v>
+        <v>64.55096598921344</v>
       </c>
       <c r="K294" t="n">
-        <v>-10.34649181365967</v>
+        <v>16.47707557678223</v>
       </c>
     </row>
     <row r="295">
@@ -8073,22 +8073,22 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>14.15662002028706</v>
+        <v>14.2684629007507</v>
       </c>
       <c r="D295" t="n">
         <v>0.8</v>
       </c>
       <c r="E295" t="n">
-        <v>0.02577103960122924</v>
+        <v>0.02602886621746152</v>
       </c>
       <c r="F295" t="n">
-        <v>41.5640611402026</v>
+        <v>42.00300023319269</v>
       </c>
       <c r="G295" t="n">
-        <v>58.89797651188354</v>
+        <v>59.37340505454144</v>
       </c>
       <c r="K295" t="n">
-        <v>20.30627250671387</v>
+        <v>20.30459022521973</v>
       </c>
     </row>
     <row r="296">
@@ -8099,22 +8099,22 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>8.165957466354127</v>
+        <v>13.70330181449515</v>
       </c>
       <c r="D296" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E296" t="n">
-        <v>0.009334033507083771</v>
+        <v>0.02469037314630892</v>
       </c>
       <c r="F296" t="n">
-        <v>18.393970965777</v>
+        <v>39.68563076831906</v>
       </c>
       <c r="G296" t="n">
-        <v>32.02521502739398</v>
+        <v>57.22214294218001</v>
       </c>
       <c r="K296" t="n">
-        <v>10.63508701324463</v>
+        <v>20.31858444213867</v>
       </c>
     </row>
     <row r="297">
@@ -8125,22 +8125,22 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>10.20733138578349</v>
+        <v>7.463314529476987</v>
       </c>
       <c r="D297" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E297" t="n">
-        <v>0.004166652535693243</v>
+        <v>0.006996611258060051</v>
       </c>
       <c r="F297" t="n">
-        <v>16.44420143035048</v>
+        <v>19.1226799828984</v>
       </c>
       <c r="G297" t="n">
-        <v>22.93465655187881</v>
+        <v>27.36825527025935</v>
       </c>
       <c r="K297" t="n">
-        <v>2.384892702102661</v>
+        <v>9.437784194946289</v>
       </c>
     </row>
     <row r="298">
@@ -8151,22 +8151,22 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>7.10898301073337</v>
+        <v>12.9292433587404</v>
       </c>
       <c r="D298" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E298" t="n">
-        <v>0.007030803472501666</v>
+        <v>0.02271657147041952</v>
       </c>
       <c r="F298" t="n">
-        <v>21.2358648555749</v>
+        <v>36.24469535027863</v>
       </c>
       <c r="G298" t="n">
-        <v>25.0279463922896</v>
+        <v>54.51849552170524</v>
       </c>
       <c r="K298" t="n">
-        <v>9.580342292785645</v>
+        <v>20.03971672058105</v>
       </c>
     </row>
     <row r="299">
@@ -8174,25 +8174,25 @@
         <v>0</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C299" t="n">
-        <v>13.71263489192335</v>
+        <v>15.64855122027442</v>
       </c>
       <c r="D299" t="n">
         <v>0.8</v>
       </c>
       <c r="E299" t="n">
-        <v>0.0246743117796602</v>
+        <v>0.0290566783389983</v>
       </c>
       <c r="F299" t="n">
-        <v>39.530928659461</v>
+        <v>47.29231514011151</v>
       </c>
       <c r="G299" t="n">
-        <v>58.11910477595663</v>
+        <v>64.71455107575011</v>
       </c>
       <c r="K299" t="n">
-        <v>20.02610015869141</v>
+        <v>-5.017817497253418</v>
       </c>
     </row>
     <row r="300">
@@ -8203,22 +8203,22 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>7.872971180074317</v>
+        <v>14.68557546488162</v>
       </c>
       <c r="D300" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E300" t="n">
-        <v>0.01761950006551405</v>
+        <v>0.02696137298377337</v>
       </c>
       <c r="F300" t="n">
-        <v>46.07645391709706</v>
+        <v>43.52464690207715</v>
       </c>
       <c r="G300" t="n">
-        <v>23.79081242303791</v>
+        <v>61.92496235654634</v>
       </c>
       <c r="K300" t="n">
-        <v>10.31143760681152</v>
+        <v>20.32686805725098</v>
       </c>
     </row>
   </sheetData>
